--- a/Pakistan/pakistan_master.xlsx
+++ b/Pakistan/pakistan_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianbaehr/GitHub/SCA Geocoding/Pakistan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E91D7-2F97-3A42-9CF3-5080A915A72E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED7861E-815E-6440-814D-E87BFD232437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{05311BA7-4857-F345-9382-5CBE9D5DCE9F}"/>
+    <workbookView xWindow="1380" yWindow="880" windowWidth="27040" windowHeight="16560" xr2:uid="{05311BA7-4857-F345-9382-5CBE9D5DCE9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1206">
   <si>
     <t>project_id</t>
   </si>
@@ -3987,6 +3987,21 @@
   </si>
   <si>
     <t>christian_geojson</t>
+  </si>
+  <si>
+    <t>good code up</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>province</t>
   </si>
 </sst>
 </file>
@@ -4114,7 +4129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4145,6 +4160,24 @@
         <bgColor rgb="FFCC4125"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4158,7 +4191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4167,7 +4200,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4227,6 +4259,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4543,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F11B95-CE95-DB4D-A7BE-0E9C5C9CE3BC}">
   <dimension ref="A2:Z1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16"/>
@@ -4608,407 +4653,526 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="4">
+      <c r="A5" s="47">
         <v>35614</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="51" t="s">
         <v>14</v>
       </c>
+      <c r="J5" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="4">
+      <c r="A6" s="47">
         <v>34489</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="49" t="s">
         <v>22</v>
       </c>
+      <c r="J6" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="4">
+      <c r="A7" s="47">
         <v>35101</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="49" t="s">
         <v>22</v>
       </c>
+      <c r="J7" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="4">
+      <c r="A8" s="47">
         <v>35613</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="49" t="s">
         <v>32</v>
       </c>
+      <c r="J8" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="4">
+      <c r="A9" s="47">
         <v>35280</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="49" t="s">
         <v>37</v>
       </c>
+      <c r="J9" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="4">
+      <c r="A10" s="47">
         <v>35415</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="49" t="s">
         <v>37</v>
       </c>
+      <c r="J10" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="4">
+      <c r="A11" s="47">
         <v>35335</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="49" t="s">
         <v>46</v>
       </c>
+      <c r="J11" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="4">
+      <c r="A12" s="47">
         <v>35607</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="48"/>
+      <c r="F12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="49" t="s">
         <v>51</v>
       </c>
+      <c r="J12" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="4">
+      <c r="A13" s="47">
         <v>53561</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="50" t="s">
         <v>56</v>
       </c>
+      <c r="J13" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="4">
+      <c r="A14" s="47">
         <v>35375</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="49" t="s">
         <v>61</v>
       </c>
+      <c r="J14" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="4">
+      <c r="A15" s="47">
         <v>35606</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="49" t="s">
         <v>66</v>
       </c>
+      <c r="J15" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="4">
+      <c r="A16" s="47">
         <v>35309</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4">
+      <c r="J16" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="47">
         <v>35351</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="49"/>
+      <c r="H17" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="49" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4">
+      <c r="J17" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="47">
         <v>72695</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="49" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4">
+      <c r="J18" s="52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="47">
         <v>35380</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="49"/>
+      <c r="H19" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="57" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="52" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>35075</v>
       </c>
@@ -5027,17 +5191,17 @@
       <c r="F20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <v>35075</v>
       </c>
@@ -5056,17 +5220,17 @@
       <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>72696</v>
       </c>
@@ -5089,7 +5253,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>35293</v>
       </c>
@@ -5113,7 +5277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" s="4">
         <v>36828</v>
       </c>
@@ -5132,17 +5296,17 @@
       <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>112</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>35791</v>
       </c>
@@ -5160,14 +5324,14 @@
         <v>12</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>117</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>36820</v>
       </c>
@@ -5186,17 +5350,17 @@
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>36900</v>
       </c>
@@ -5213,14 +5377,14 @@
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>127</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <v>53556</v>
       </c>
@@ -5239,7 +5403,7 @@
       <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>133</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -5249,7 +5413,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:12">
       <c r="A29" s="4">
         <v>36056</v>
       </c>
@@ -5266,7 +5430,7 @@
       <c r="F29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -5276,7 +5440,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:12">
       <c r="A30" s="4">
         <v>53558</v>
       </c>
@@ -5294,14 +5458,14 @@
         <v>12</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>144</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <v>35352</v>
       </c>
@@ -5320,17 +5484,17 @@
       <c r="F31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>151</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <v>35352</v>
       </c>
@@ -5349,10 +5513,10 @@
       <c r="F32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>151</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -5378,10 +5542,10 @@
       <c r="F33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="7" t="s">
         <v>112</v>
       </c>
       <c r="I33" s="5" t="s">
@@ -5406,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>162</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -5431,7 +5595,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>167</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -5455,10 +5619,10 @@
       <c r="F36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>172</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5484,7 +5648,7 @@
       <c r="F37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -5511,58 +5675,58 @@
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>36694</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="4">
@@ -5583,10 +5747,10 @@
       <c r="F40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>198</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -5611,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>203</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -5637,10 +5801,10 @@
       <c r="F42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>209</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -5657,14 +5821,14 @@
       <c r="C43" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>213</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -5691,10 +5855,10 @@
       <c r="F44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>219</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -5718,10 +5882,10 @@
       <c r="F45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -5747,10 +5911,10 @@
       <c r="F46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>230</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -5774,7 +5938,7 @@
       <c r="F47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -5801,10 +5965,10 @@
       <c r="F48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>238</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -5828,10 +5992,10 @@
       <c r="F49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="6" t="s">
         <v>241</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -5856,7 +6020,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>246</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -5864,40 +6028,40 @@
       </c>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>72738</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="4">
@@ -5919,10 +6083,10 @@
         <v>12</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5944,10 +6108,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5969,10 +6133,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5993,10 +6157,10 @@
       <c r="F55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="6" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -6020,10 +6184,10 @@
       <c r="F56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="7" t="s">
         <v>274</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -6049,10 +6213,10 @@
       <c r="F57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7" t="s">
         <v>280</v>
       </c>
       <c r="I57" s="5" t="s">
@@ -6078,10 +6242,10 @@
       <c r="F58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="7" t="s">
         <v>280</v>
       </c>
       <c r="I58" s="5" t="s">
@@ -6107,10 +6271,10 @@
       <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="7" t="s">
         <v>286</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -6134,7 +6298,7 @@
       <c r="F60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>291</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -6163,10 +6327,10 @@
       <c r="F61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="8" t="s">
         <v>297</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -6192,7 +6356,7 @@
       <c r="F62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>302</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -6221,7 +6385,7 @@
       <c r="F63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>302</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -6249,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="7" t="s">
         <v>314</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -6275,7 +6439,7 @@
       <c r="F65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="6" t="s">
         <v>320</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -6304,7 +6468,7 @@
       <c r="F66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>302</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -6331,10 +6495,10 @@
       <c r="F67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="8" t="s">
         <v>330</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -6360,7 +6524,7 @@
       <c r="F68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="6" t="s">
         <v>320</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -6387,10 +6551,10 @@
       <c r="F69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="6" t="s">
         <v>340</v>
       </c>
       <c r="I69" s="5" t="s">
@@ -6416,7 +6580,7 @@
       <c r="F70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -6444,7 +6608,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="7" t="s">
         <v>350</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -6469,7 +6633,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="7" t="s">
         <v>355</v>
       </c>
       <c r="I72" s="2" t="s">
@@ -6495,10 +6659,10 @@
       <c r="F73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="7" t="s">
         <v>360</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -6523,7 +6687,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>365</v>
       </c>
       <c r="I74" s="5" t="s">
@@ -6550,7 +6714,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="6" t="s">
         <v>370</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -6576,7 +6740,7 @@
       <c r="F76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>376</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -6605,7 +6769,7 @@
       <c r="F77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="6" t="s">
         <v>320</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -6634,7 +6798,7 @@
       <c r="F78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="6" t="s">
         <v>320</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -6645,50 +6809,50 @@
       </c>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <v>37236</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="I79" s="21" t="s">
+      <c r="I79" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
-      <c r="Z79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="4">
@@ -6707,10 +6871,10 @@
       <c r="F80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="6" t="s">
         <v>401</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -6734,10 +6898,10 @@
       <c r="F81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="6" t="s">
         <v>401</v>
       </c>
       <c r="I81" s="2" t="s">
@@ -6761,10 +6925,10 @@
       <c r="F82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>401</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -6788,13 +6952,13 @@
       <c r="F83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="10" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6834,4901 +6998,4901 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="22" t="s">
+      <c r="F87" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G87" s="23" t="s">
+      <c r="G87" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="24" t="s">
+      <c r="I87" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" s="25">
+      <c r="A88" s="24">
         <v>35257</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22" t="s">
+      <c r="E88" s="21"/>
+      <c r="F88" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="23"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="24" t="s">
+      <c r="G88" s="22"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="23" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A89" s="25">
+      <c r="A89" s="24">
         <v>53988</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22" t="s">
+      <c r="E89" s="21"/>
+      <c r="F89" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="H89" s="27" t="s">
+      <c r="H89" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="I89" s="24" t="s">
+      <c r="I89" s="23" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A90" s="25">
+      <c r="A90" s="24">
         <v>72689</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F90" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H90" s="27" t="s">
+      <c r="H90" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I90" s="23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A91" s="25">
+      <c r="A91" s="24">
         <v>39015</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F91" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G91" s="28" t="s">
+      <c r="G91" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="H91" s="27" t="s">
+      <c r="H91" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="I91" s="29" t="s">
+      <c r="I91" s="28" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A92" s="25">
+      <c r="A92" s="24">
         <v>39015</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="I92" s="29" t="s">
+      <c r="I92" s="28" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A93" s="25">
+      <c r="A93" s="24">
         <v>39015</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="F93" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="H93" s="22" t="s">
+      <c r="H93" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="I93" s="29" t="s">
+      <c r="I93" s="28" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A94" s="25">
+      <c r="A94" s="24">
         <v>39015</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G94" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="H94" s="27" t="s">
+      <c r="H94" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="I94" s="30" t="s">
+      <c r="I94" s="29" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A95" s="25">
+      <c r="A95" s="24">
         <v>52542</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E95" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G95" s="26" t="s">
+      <c r="G95" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H95" s="27" t="s">
+      <c r="H95" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="I95" s="24" t="s">
+      <c r="I95" s="23" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A96" s="25">
+      <c r="A96" s="24">
         <v>36819</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22" t="s">
+      <c r="E96" s="21"/>
+      <c r="F96" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="30" t="s">
+      <c r="G96" s="22"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="29" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A97" s="25">
+      <c r="A97" s="24">
         <v>43230</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G97" s="31" t="s">
+      <c r="G97" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="H97" s="27" t="s">
+      <c r="H97" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="I97" s="24" t="s">
+      <c r="I97" s="23" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A98" s="25">
+      <c r="A98" s="24">
         <v>36943</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22" t="s">
+      <c r="E98" s="21"/>
+      <c r="F98" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G98" s="26" t="s">
+      <c r="G98" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="H98" s="27" t="s">
+      <c r="H98" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="I98" s="32" t="s">
+      <c r="I98" s="31" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A99" s="25">
+      <c r="A99" s="24">
         <v>36943</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22" t="s">
+      <c r="E99" s="21"/>
+      <c r="F99" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="27" t="s">
+      <c r="G99" s="22"/>
+      <c r="H99" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="I99" s="32" t="s">
+      <c r="I99" s="31" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A100" s="25">
+      <c r="A100" s="24">
         <v>53723</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H100" s="27" t="s">
+      <c r="H100" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="I100" s="24" t="s">
+      <c r="I100" s="23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A101" s="25">
+      <c r="A101" s="24">
         <v>38777</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22" t="s">
+      <c r="E101" s="21"/>
+      <c r="F101" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="24" t="s">
+      <c r="G101" s="22"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A102" s="25">
+      <c r="A102" s="24">
         <v>35900</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G102" s="26" t="s">
+      <c r="G102" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="H102" s="22"/>
-      <c r="I102" s="24" t="s">
+      <c r="H102" s="21"/>
+      <c r="I102" s="23" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A103" s="25">
+      <c r="A103" s="24">
         <v>54283</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="F103" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="G103" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="H103" s="27" t="s">
+      <c r="H103" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="I103" s="24" t="s">
+      <c r="I103" s="23" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A104" s="25">
+      <c r="A104" s="24">
         <v>54285</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G104" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="H104" s="27" t="s">
+      <c r="H104" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="I104" s="24" t="s">
+      <c r="I104" s="23" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A105" s="25">
+      <c r="A105" s="24">
         <v>36953</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="F105" s="22"/>
-      <c r="G105" s="26" t="s">
+      <c r="F105" s="21"/>
+      <c r="G105" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="I105" s="32" t="s">
+      <c r="I105" s="31" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A106" s="25">
+      <c r="A106" s="24">
         <v>70001</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="H106" s="22"/>
-      <c r="I106" s="24" t="s">
+      <c r="H106" s="21"/>
+      <c r="I106" s="23" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A107" s="25">
+      <c r="A107" s="24">
         <v>53857</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22" t="s">
+      <c r="E107" s="21"/>
+      <c r="F107" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="32" t="s">
+      <c r="G107" s="22"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="31" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A108" s="25">
+      <c r="A108" s="24">
         <v>53911</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22" t="s">
+      <c r="E108" s="21"/>
+      <c r="F108" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="23"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="24" t="s">
+      <c r="G108" s="22"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="23" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A109" s="25">
+      <c r="A109" s="24">
         <v>52537</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="D109" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="F109" s="22" t="s">
+      <c r="F109" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G109" s="26" t="s">
+      <c r="G109" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H109" s="27" t="s">
+      <c r="H109" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="I109" s="24" t="s">
+      <c r="I109" s="23" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A110" s="25">
+      <c r="A110" s="24">
         <v>55836</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="H110" s="22" t="s">
+      <c r="H110" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="I110" s="29" t="s">
+      <c r="I110" s="28" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A111" s="25">
+      <c r="A111" s="24">
         <v>57673</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="D111" s="22" t="s">
+      <c r="D111" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="F111" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G111" s="26" t="s">
+      <c r="G111" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H111" s="27" t="s">
+      <c r="H111" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="I111" s="32" t="s">
+      <c r="I111" s="31" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A112" s="25">
+      <c r="A112" s="24">
         <v>35350</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="E112" s="22" t="s">
+      <c r="E112" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F112" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="H112" s="22"/>
-      <c r="I112" s="24" t="s">
+      <c r="H112" s="21"/>
+      <c r="I112" s="23" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A113" s="25">
+      <c r="A113" s="24">
         <v>35350</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="E113" s="22" t="s">
+      <c r="E113" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="24" t="s">
+      <c r="G113" s="22"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="23" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A114" s="25">
+      <c r="A114" s="24">
         <v>39087</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G114" s="26" t="s">
+      <c r="G114" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="H114" s="27" t="s">
+      <c r="H114" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="I114" s="32" t="s">
+      <c r="I114" s="31" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A115" s="25">
+      <c r="A115" s="24">
         <v>39087</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="E115" s="22" t="s">
+      <c r="E115" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F115" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G115" s="26" t="s">
+      <c r="G115" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="H115" s="27" t="s">
+      <c r="H115" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="I115" s="32" t="s">
+      <c r="I115" s="31" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A116" s="25">
+      <c r="A116" s="24">
         <v>39087</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D116" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="27" t="s">
+      <c r="G116" s="22"/>
+      <c r="H116" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="I116" s="32" t="s">
+      <c r="I116" s="31" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A117" s="25">
+      <c r="A117" s="24">
         <v>36801</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D117" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22" t="s">
+      <c r="E117" s="21"/>
+      <c r="F117" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="23"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="24" t="s">
+      <c r="G117" s="22"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="23" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A118" s="25">
+      <c r="A118" s="24">
         <v>36985</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22" t="s">
+      <c r="E118" s="21"/>
+      <c r="F118" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="27" t="s">
+      <c r="G118" s="22"/>
+      <c r="H118" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="I118" s="24" t="s">
+      <c r="I118" s="23" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>56552</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="21" t="s">
         <v>557</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22" t="s">
+      <c r="E119" s="21"/>
+      <c r="F119" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="24" t="s">
+      <c r="G119" s="22"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="23" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A120" s="25">
+      <c r="A120" s="24">
         <v>52649</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="21" t="s">
         <v>560</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F120" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="H120" s="34" t="s">
+      <c r="H120" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="I120" s="32" t="s">
+      <c r="I120" s="31" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A121" s="25">
+      <c r="A121" s="24">
         <v>53904</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22" t="s">
+      <c r="E121" s="21"/>
+      <c r="F121" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="23"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="32" t="s">
+      <c r="G121" s="22"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="31" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A122" s="25">
+      <c r="A122" s="24">
         <v>35278</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E122" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F122" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G122" s="26" t="s">
+      <c r="G122" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="H122" s="27" t="s">
+      <c r="H122" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="I122" s="32" t="s">
+      <c r="I122" s="31" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A123" s="25">
+      <c r="A123" s="24">
         <v>72693</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22" t="s">
+      <c r="E123" s="21"/>
+      <c r="F123" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G123" s="35" t="s">
+      <c r="G123" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H123" s="22" t="s">
+      <c r="H123" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I123" s="36" t="s">
+      <c r="I123" s="35" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A124" s="25">
+      <c r="A124" s="24">
         <v>53557</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F124" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G124" s="37" t="s">
+      <c r="G124" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="H124" s="27" t="s">
+      <c r="H124" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="I124" s="32" t="s">
+      <c r="I124" s="31" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A125" s="25">
+      <c r="A125" s="24">
         <v>72072</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22" t="s">
+      <c r="E125" s="21"/>
+      <c r="F125" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G125" s="38" t="s">
+      <c r="G125" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H125" s="38" t="s">
+      <c r="H125" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="38" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A126" s="25">
+      <c r="A126" s="24">
         <v>35615</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22" t="s">
+      <c r="E126" s="21"/>
+      <c r="F126" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="23"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="32" t="s">
+      <c r="G126" s="22"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="31" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A127" s="25">
+      <c r="A127" s="24">
         <v>35837</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="F127" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G127" s="26" t="s">
+      <c r="G127" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="32" t="s">
+      <c r="H127" s="21"/>
+      <c r="I127" s="31" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A128" s="25">
+      <c r="A128" s="24">
         <v>71152</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22" t="s">
+      <c r="E128" s="21"/>
+      <c r="F128" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G128" s="23"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="32" t="s">
+      <c r="G128" s="22"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="31" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A129" s="25">
+      <c r="A129" s="24">
         <v>35903</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="F129" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G129" s="26" t="s">
+      <c r="G129" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="H129" s="27"/>
-      <c r="I129" s="24" t="s">
+      <c r="H129" s="26"/>
+      <c r="I129" s="23" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A130" s="25">
+      <c r="A130" s="24">
         <v>35903</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F130" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G130" s="23"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="24" t="s">
+      <c r="G130" s="22"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="23" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A131" s="25">
+      <c r="A131" s="24">
         <v>72707</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B131" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22" t="s">
+      <c r="E131" s="21"/>
+      <c r="F131" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G131" s="26" t="s">
+      <c r="G131" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H131" s="27" t="s">
+      <c r="H131" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="I131" s="32" t="s">
+      <c r="I131" s="31" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A132" s="25">
+      <c r="A132" s="24">
         <v>36809</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B132" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="D132" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="F132" s="22" t="s">
+      <c r="F132" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G132" s="35" t="s">
+      <c r="G132" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H132" s="22"/>
-      <c r="I132" s="30" t="s">
+      <c r="H132" s="21"/>
+      <c r="I132" s="29" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A133" s="25">
+      <c r="A133" s="24">
         <v>53535</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22" t="s">
+      <c r="E133" s="21"/>
+      <c r="F133" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G133" s="23"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="24" t="s">
+      <c r="G133" s="22"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="23" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A134" s="25">
+      <c r="A134" s="24">
         <v>53562</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D134" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="E134" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="F134" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G134" s="40" t="s">
+      <c r="G134" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H134" s="34" t="s">
+      <c r="H134" s="33" t="s">
         <v>632</v>
       </c>
-      <c r="I134" s="32" t="s">
+      <c r="I134" s="31" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A135" s="25">
+      <c r="A135" s="24">
         <v>37183</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22" t="s">
+      <c r="E135" s="21"/>
+      <c r="F135" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G135" s="26" t="s">
+      <c r="G135" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="H135" s="27" t="s">
+      <c r="H135" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="I135" s="32" t="s">
+      <c r="I135" s="31" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A136" s="25">
+      <c r="A136" s="24">
         <v>37183</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22" t="s">
+      <c r="E136" s="21"/>
+      <c r="F136" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G136" s="26" t="s">
+      <c r="G136" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="H136" s="22" t="s">
+      <c r="H136" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="I136" s="32" t="s">
+      <c r="I136" s="31" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A137" s="25">
+      <c r="A137" s="24">
         <v>54186</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="C137" s="22" t="s">
+      <c r="C137" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22" t="s">
+      <c r="E137" s="21"/>
+      <c r="F137" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="23"/>
-      <c r="H137" s="22"/>
-      <c r="I137" s="32" t="s">
+      <c r="G137" s="22"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="31" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A138" s="25">
+      <c r="A138" s="24">
         <v>53725</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="C138" s="22" t="s">
+      <c r="C138" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="E138" s="22" t="s">
+      <c r="E138" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="F138" s="22" t="s">
+      <c r="F138" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G138" s="26" t="s">
+      <c r="G138" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H138" s="27" t="s">
+      <c r="H138" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="I138" s="24" t="s">
+      <c r="I138" s="23" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A139" s="25">
+      <c r="A139" s="24">
         <v>73381</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B139" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D139" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22" t="s">
+      <c r="E139" s="21"/>
+      <c r="F139" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="32" t="s">
+      <c r="G139" s="22"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="31" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A140" s="25">
+      <c r="A140" s="24">
         <v>35385</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22" t="s">
+      <c r="E140" s="21"/>
+      <c r="F140" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="22"/>
-      <c r="I140" s="32" t="s">
+      <c r="G140" s="22"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="31" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A141" s="25">
+      <c r="A141" s="24">
         <v>38708</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="D141" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="E141" s="22" t="s">
+      <c r="E141" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="F141" s="22" t="s">
+      <c r="F141" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G141" s="26" t="s">
+      <c r="G141" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="H141" s="27" t="s">
+      <c r="H141" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="I141" s="32" t="s">
+      <c r="I141" s="31" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A142" s="25">
+      <c r="A142" s="24">
         <v>38708</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="C142" s="22" t="s">
+      <c r="C142" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="D142" s="22" t="s">
+      <c r="D142" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="E142" s="22" t="s">
+      <c r="E142" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F142" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G142" s="26" t="s">
+      <c r="G142" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H142" s="22"/>
-      <c r="I142" s="32" t="s">
+      <c r="H142" s="21"/>
+      <c r="I142" s="31" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A143" s="25">
+      <c r="A143" s="24">
         <v>38551</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B143" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="E143" s="22" t="s">
+      <c r="E143" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F143" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G143" s="26" t="s">
+      <c r="G143" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="H143" s="22" t="s">
+      <c r="H143" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="I143" s="32" t="s">
+      <c r="I143" s="31" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A144" s="25">
+      <c r="A144" s="24">
         <v>72694</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="D144" s="22" t="s">
+      <c r="D144" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22" t="s">
+      <c r="E144" s="21"/>
+      <c r="F144" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G144" s="35" t="s">
+      <c r="G144" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H144" s="22" t="s">
+      <c r="H144" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="I144" s="36" t="s">
+      <c r="I144" s="35" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A145" s="25">
+      <c r="A145" s="24">
         <v>35279</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22" t="s">
+      <c r="E145" s="21"/>
+      <c r="F145" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="34" t="s">
+      <c r="G145" s="40"/>
+      <c r="H145" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="I145" s="32" t="s">
+      <c r="I145" s="31" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A146" s="25">
+      <c r="A146" s="24">
         <v>34494</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="C146" s="22" t="s">
+      <c r="C146" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="D146" s="22" t="s">
+      <c r="D146" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="E146" s="22" t="s">
+      <c r="E146" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F146" s="22"/>
-      <c r="G146" s="26" t="s">
+      <c r="F146" s="21"/>
+      <c r="G146" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="H146" s="27" t="s">
+      <c r="H146" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="I146" s="32" t="s">
+      <c r="I146" s="31" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A147" s="25">
+      <c r="A147" s="24">
         <v>72388</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="E147" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F147" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G147" s="42" t="s">
+      <c r="G147" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H147" s="43" t="s">
+      <c r="H147" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="I147" s="30" t="s">
+      <c r="I147" s="29" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A148" s="25">
+      <c r="A148" s="24">
         <v>53902</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="E148" s="22" t="s">
+      <c r="E148" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="F148" s="22"/>
-      <c r="G148" s="26" t="s">
+      <c r="F148" s="21"/>
+      <c r="G148" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H148" s="27" t="s">
+      <c r="H148" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="I148" s="32" t="s">
+      <c r="I148" s="31" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A149" s="25">
+      <c r="A149" s="24">
         <v>34496</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D149" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22" t="s">
+      <c r="E149" s="21"/>
+      <c r="F149" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="32" t="s">
+      <c r="G149" s="22"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="31" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A150" s="25">
+      <c r="A150" s="24">
         <v>53901</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="D150" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22" t="s">
+      <c r="E150" s="21"/>
+      <c r="F150" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="32" t="s">
+      <c r="G150" s="22"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="31" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A151" s="25">
+      <c r="A151" s="24">
         <v>38441</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="E151" s="22" t="s">
+      <c r="E151" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="F151" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G151" s="26" t="s">
+      <c r="G151" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="H151" s="43" t="s">
+      <c r="H151" s="42" t="s">
         <v>708</v>
       </c>
-      <c r="I151" s="32" t="s">
+      <c r="I151" s="31" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A152" s="25">
+      <c r="A152" s="24">
         <v>53560</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="21" t="s">
         <v>711</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="D152" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="E152" s="22" t="s">
+      <c r="E152" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F152" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G152" s="26" t="s">
+      <c r="G152" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="H152" s="27" t="s">
+      <c r="H152" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="I152" s="24" t="s">
+      <c r="I152" s="23" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A153" s="25">
+      <c r="A153" s="24">
         <v>36722</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="21" t="s">
         <v>715</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="E153" s="22" t="s">
+      <c r="E153" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F153" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="G153" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H153" s="34" t="s">
+      <c r="H153" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="I153" s="32" t="s">
+      <c r="I153" s="31" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A154" s="25">
+      <c r="A154" s="24">
         <v>53542</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="21" t="s">
         <v>721</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="E154" s="22" t="s">
+      <c r="E154" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F154" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G154" s="26" t="s">
+      <c r="G154" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="H154" s="27" t="s">
+      <c r="H154" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="I154" s="32" t="s">
+      <c r="I154" s="31" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A155" s="25">
+      <c r="A155" s="24">
         <v>72478</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="D155" s="22" t="s">
+      <c r="D155" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22" t="s">
+      <c r="E155" s="21"/>
+      <c r="F155" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="23"/>
-      <c r="H155" s="27" t="s">
+      <c r="G155" s="22"/>
+      <c r="H155" s="26" t="s">
         <v>729</v>
       </c>
-      <c r="I155" s="32" t="s">
+      <c r="I155" s="31" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A156" s="25">
+      <c r="A156" s="24">
         <v>38599</v>
       </c>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="D156" s="22" t="s">
+      <c r="D156" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="E156" s="22" t="s">
+      <c r="E156" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="F156" s="22" t="s">
+      <c r="F156" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G156" s="31" t="s">
+      <c r="G156" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H156" s="38" t="s">
+      <c r="H156" s="37" t="s">
         <v>688</v>
       </c>
-      <c r="I156" s="38" t="s">
+      <c r="I156" s="37" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A157" s="25">
+      <c r="A157" s="24">
         <v>36797</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B157" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="C157" s="22" t="s">
+      <c r="C157" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="D157" s="22" t="s">
+      <c r="D157" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="E157" s="22" t="s">
+      <c r="E157" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="F157" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G157" s="38" t="s">
+      <c r="G157" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H157" s="38"/>
-      <c r="I157" s="38" t="s">
+      <c r="H157" s="37"/>
+      <c r="I157" s="37" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A158" s="25">
+      <c r="A158" s="24">
         <v>35830</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="C158" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="E158" s="22" t="s">
+      <c r="E158" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F158" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="G158" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="H158" s="22" t="s">
+      <c r="H158" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="I158" s="32" t="s">
+      <c r="I158" s="31" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A159" s="25">
+      <c r="A159" s="24">
         <v>39088</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="21" t="s">
         <v>747</v>
       </c>
-      <c r="D159" s="22" t="s">
+      <c r="D159" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22" t="s">
+      <c r="E159" s="21"/>
+      <c r="F159" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="23"/>
-      <c r="H159" s="34" t="s">
+      <c r="G159" s="22"/>
+      <c r="H159" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="I159" s="32" t="s">
+      <c r="I159" s="31" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A160" s="25">
+      <c r="A160" s="24">
         <v>43219</v>
       </c>
-      <c r="B160" s="22" t="s">
+      <c r="B160" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="D160" s="22" t="s">
+      <c r="D160" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22" t="s">
+      <c r="E160" s="21"/>
+      <c r="F160" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="27" t="s">
+      <c r="G160" s="22"/>
+      <c r="H160" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="I160" s="32" t="s">
+      <c r="I160" s="31" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A161" s="25">
+      <c r="A161" s="24">
         <v>37023</v>
       </c>
-      <c r="B161" s="22" t="s">
+      <c r="B161" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="C161" s="22" t="s">
+      <c r="C161" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="D161" s="22" t="s">
+      <c r="D161" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22" t="s">
+      <c r="E161" s="21"/>
+      <c r="F161" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G161" s="37" t="s">
+      <c r="G161" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="H161" s="27" t="s">
+      <c r="H161" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="I161" s="32" t="s">
+      <c r="I161" s="31" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A162" s="25">
+      <c r="A162" s="24">
         <v>37023</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="D162" s="22" t="s">
+      <c r="D162" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22" t="s">
+      <c r="E162" s="21"/>
+      <c r="F162" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="H162" s="27" t="s">
+      <c r="H162" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="I162" s="32" t="s">
+      <c r="I162" s="31" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A163" s="25">
+      <c r="A163" s="24">
         <v>37023</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="D163" s="22" t="s">
+      <c r="D163" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22" t="s">
+      <c r="E163" s="21"/>
+      <c r="F163" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="H163" s="27" t="s">
+      <c r="H163" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="I163" s="32" t="s">
+      <c r="I163" s="31" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A164" s="25">
+      <c r="A164" s="24">
         <v>37023</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22" t="s">
+      <c r="E164" s="21"/>
+      <c r="F164" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H164" s="27" t="s">
+      <c r="H164" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="I164" s="32" t="s">
+      <c r="I164" s="31" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A165" s="25">
+      <c r="A165" s="24">
         <v>35109</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="D165" s="22" t="s">
+      <c r="D165" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22" t="s">
+      <c r="E165" s="21"/>
+      <c r="F165" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="23"/>
-      <c r="H165" s="27" t="s">
+      <c r="G165" s="22"/>
+      <c r="H165" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="I165" s="32" t="s">
+      <c r="I165" s="31" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A166" s="25">
+      <c r="A166" s="24">
         <v>35130</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="21" t="s">
         <v>773</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="D166" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22" t="s">
+      <c r="E166" s="21"/>
+      <c r="F166" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="23"/>
-      <c r="H166" s="22"/>
-      <c r="I166" s="32" t="s">
+      <c r="G166" s="22"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="31" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A167" s="25">
+      <c r="A167" s="24">
         <v>55186</v>
       </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="21" t="s">
         <v>778</v>
       </c>
-      <c r="E167" s="22"/>
-      <c r="F167" s="22" t="s">
+      <c r="E167" s="21"/>
+      <c r="F167" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="23"/>
-      <c r="H167" s="22"/>
-      <c r="I167" s="32" t="s">
+      <c r="G167" s="22"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="31" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A168" s="25">
+      <c r="A168" s="24">
         <v>53815</v>
       </c>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="21" t="s">
         <v>781</v>
       </c>
-      <c r="D168" s="22" t="s">
+      <c r="D168" s="21" t="s">
         <v>782</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="F168" s="22" t="s">
+      <c r="F168" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G168" s="33" t="s">
+      <c r="G168" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="H168" s="34" t="s">
+      <c r="H168" s="33" t="s">
         <v>783</v>
       </c>
-      <c r="I168" s="30" t="s">
+      <c r="I168" s="29" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A169" s="25">
+      <c r="A169" s="24">
         <v>54132</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="E169" s="22" t="s">
+      <c r="E169" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="F169" s="22" t="s">
+      <c r="F169" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G169" s="33" t="s">
+      <c r="G169" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H169" s="27" t="s">
+      <c r="H169" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="I169" s="32" t="s">
+      <c r="I169" s="31" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A170" s="25">
+      <c r="A170" s="24">
         <v>54132</v>
       </c>
-      <c r="B170" s="22" t="s">
+      <c r="B170" s="21" t="s">
         <v>785</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="21" t="s">
         <v>787</v>
       </c>
-      <c r="E170" s="22" t="s">
+      <c r="E170" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="F170" s="22" t="s">
+      <c r="F170" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G170" s="33" t="s">
+      <c r="G170" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="H170" s="27" t="s">
+      <c r="H170" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="I170" s="32" t="s">
+      <c r="I170" s="31" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A171" s="25">
+      <c r="A171" s="24">
         <v>53903</v>
       </c>
-      <c r="B171" s="22" t="s">
+      <c r="B171" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="21" t="s">
         <v>793</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="21" t="s">
         <v>794</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="F171" s="22" t="s">
+      <c r="F171" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="G171" s="34" t="s">
+      <c r="G171" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="H171" s="22" t="s">
+      <c r="H171" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="I171" s="32" t="s">
+      <c r="I171" s="31" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A172" s="25">
+      <c r="A172" s="24">
         <v>35312</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="B172" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C172" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D172" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="E172" s="22"/>
-      <c r="F172" s="22" t="s">
+      <c r="E172" s="21"/>
+      <c r="F172" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G172" s="33" t="s">
+      <c r="G172" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H172" s="34" t="s">
+      <c r="H172" s="33" t="s">
         <v>801</v>
       </c>
-      <c r="I172" s="32" t="s">
+      <c r="I172" s="31" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A173" s="25"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="34"/>
-      <c r="I173" s="32"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="31"/>
     </row>
     <row r="174" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="24" t="s">
         <v>1196</v>
       </c>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="34"/>
-      <c r="I174" s="32"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="31"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A175" s="44"/>
-      <c r="B175" s="44"/>
-      <c r="C175" s="44"/>
-      <c r="D175" s="38"/>
-      <c r="E175" s="44"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="44"/>
-      <c r="H175" s="44"/>
-      <c r="I175" s="44"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
     </row>
     <row r="176" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A176" s="22" t="s">
+      <c r="A176" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="22" t="s">
+      <c r="B176" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="D176" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="E176" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="F176" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G176" s="38" t="s">
+      <c r="G176" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="22" t="s">
+      <c r="H176" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I176" s="22" t="s">
+      <c r="I176" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A177" s="25">
+      <c r="A177" s="24">
         <v>41918</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="21" t="s">
         <v>803</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="E177" s="22" t="s">
+      <c r="E177" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="F177" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G177" s="33" t="s">
+      <c r="G177" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="H177" s="38" t="s">
+      <c r="H177" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="I177" s="45" t="s">
+      <c r="I177" s="44" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A178" s="25">
+      <c r="A178" s="24">
         <v>41917</v>
       </c>
-      <c r="B178" s="22" t="s">
+      <c r="B178" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="E178" s="22" t="s">
+      <c r="E178" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="F178" s="22" t="s">
+      <c r="F178" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G178" s="33" t="s">
+      <c r="G178" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="H178" s="38" t="s">
+      <c r="H178" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="I178" s="45" t="s">
+      <c r="I178" s="44" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A179" s="25">
+      <c r="A179" s="24">
         <v>54416</v>
       </c>
-      <c r="B179" s="22" t="s">
+      <c r="B179" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="E179" s="22" t="s">
+      <c r="E179" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="F179" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G179" s="33" t="s">
+      <c r="G179" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="H179" s="33" t="s">
+      <c r="H179" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I179" s="45" t="s">
+      <c r="I179" s="44" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A180" s="25">
+      <c r="A180" s="24">
         <v>54416</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="D180" s="22" t="s">
+      <c r="D180" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="E180" s="22" t="s">
+      <c r="E180" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="F180" s="22" t="s">
+      <c r="F180" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G180" s="33" t="s">
+      <c r="G180" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="H180" s="33" t="s">
+      <c r="H180" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I180" s="45" t="s">
+      <c r="I180" s="44" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A181" s="25">
+      <c r="A181" s="24">
         <v>54416</v>
       </c>
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="D181" s="22" t="s">
+      <c r="D181" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="E181" s="22" t="s">
+      <c r="E181" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="F181" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G181" s="33" t="s">
+      <c r="G181" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="H181" s="33" t="s">
+      <c r="H181" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I181" s="45" t="s">
+      <c r="I181" s="44" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A182" s="25">
+      <c r="A182" s="24">
         <v>52904</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="E182" s="22" t="s">
+      <c r="E182" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="F182" s="22" t="s">
+      <c r="F182" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G182" s="33" t="s">
+      <c r="G182" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="H182" s="33" t="s">
+      <c r="H182" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="I182" s="45" t="s">
+      <c r="I182" s="44" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A183" s="25">
+      <c r="A183" s="24">
         <v>52423</v>
       </c>
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="21" t="s">
         <v>833</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="D183" s="22" t="s">
+      <c r="D183" s="21" t="s">
         <v>835</v>
       </c>
-      <c r="E183" s="22" t="s">
+      <c r="E183" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="F183" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="H183" s="38" t="s">
+      <c r="H183" s="37" t="s">
         <v>838</v>
       </c>
-      <c r="I183" s="45" t="s">
+      <c r="I183" s="44" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A184" s="25">
+      <c r="A184" s="24">
         <v>52659</v>
       </c>
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="21" t="s">
         <v>840</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="E184" s="22" t="s">
+      <c r="E184" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="F184" s="22" t="s">
+      <c r="F184" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G184" s="33" t="s">
+      <c r="G184" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="H184" s="33" t="s">
+      <c r="H184" s="32" t="s">
         <v>844</v>
       </c>
-      <c r="I184" s="45" t="s">
+      <c r="I184" s="44" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A185" s="25">
+      <c r="A185" s="24">
         <v>39014</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="21" t="s">
         <v>846</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="21" t="s">
         <v>847</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="21" t="s">
         <v>848</v>
       </c>
-      <c r="E185" s="22" t="s">
+      <c r="E185" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="F185" s="22" t="s">
+      <c r="F185" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G185" s="33" t="s">
+      <c r="G185" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="H185" s="33" t="s">
+      <c r="H185" s="32" t="s">
         <v>851</v>
       </c>
-      <c r="I185" s="45" t="s">
+      <c r="I185" s="44" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A186" s="25">
+      <c r="A186" s="24">
         <v>37280</v>
       </c>
-      <c r="B186" s="22" t="s">
+      <c r="B186" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="21" t="s">
         <v>854</v>
       </c>
-      <c r="D186" s="22" t="s">
+      <c r="D186" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="E186" s="22" t="s">
+      <c r="E186" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="F186" s="22" t="s">
+      <c r="F186" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G186" s="33" t="s">
+      <c r="G186" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="H186" s="33" t="s">
+      <c r="H186" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="I186" s="45" t="s">
+      <c r="I186" s="44" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A187" s="25">
+      <c r="A187" s="24">
         <v>70728</v>
       </c>
-      <c r="B187" s="22" t="s">
+      <c r="B187" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="D187" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="E187" s="22" t="s">
+      <c r="E187" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="F187" s="22" t="s">
+      <c r="F187" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G187" s="33" t="s">
+      <c r="G187" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="H187" s="34" t="s">
+      <c r="H187" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="I187" s="45" t="s">
+      <c r="I187" s="44" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A188" s="25">
+      <c r="A188" s="24">
         <v>35126</v>
       </c>
-      <c r="B188" s="22" t="s">
+      <c r="B188" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="21" t="s">
         <v>868</v>
       </c>
-      <c r="D188" s="22" t="s">
+      <c r="D188" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="E188" s="22"/>
-      <c r="F188" s="22" t="s">
+      <c r="E188" s="21"/>
+      <c r="F188" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G188" s="38"/>
-      <c r="H188" s="38"/>
-      <c r="I188" s="22" t="s">
+      <c r="G188" s="37"/>
+      <c r="H188" s="37"/>
+      <c r="I188" s="21" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A189" s="25">
+      <c r="A189" s="24">
         <v>54424</v>
       </c>
-      <c r="B189" s="22" t="s">
+      <c r="B189" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="D189" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="E189" s="22" t="s">
+      <c r="E189" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="F189" s="22" t="s">
+      <c r="F189" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G189" s="33" t="s">
+      <c r="G189" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="H189" s="33" t="s">
+      <c r="H189" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="I189" s="45" t="s">
+      <c r="I189" s="44" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A190" s="25">
+      <c r="A190" s="24">
         <v>37233</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D190" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="E190" s="22" t="s">
+      <c r="E190" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="F190" s="22" t="s">
+      <c r="F190" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G190" s="33" t="s">
+      <c r="G190" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="H190" s="40" t="s">
+      <c r="H190" s="39" t="s">
         <v>882</v>
       </c>
-      <c r="I190" s="45" t="s">
+      <c r="I190" s="44" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A191" s="25">
+      <c r="A191" s="24">
         <v>39013</v>
       </c>
-      <c r="B191" s="22" t="s">
+      <c r="B191" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D191" s="22" t="s">
+      <c r="D191" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="E191" s="22" t="s">
+      <c r="E191" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="F191" s="22" t="s">
+      <c r="F191" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G191" s="33" t="s">
+      <c r="G191" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="H191" s="33" t="s">
+      <c r="H191" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I191" s="45" t="s">
+      <c r="I191" s="44" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A192" s="25">
+      <c r="A192" s="24">
         <v>39013</v>
       </c>
-      <c r="B192" s="22" t="s">
+      <c r="B192" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D192" s="22" t="s">
+      <c r="D192" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="E192" s="22" t="s">
+      <c r="E192" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="F192" s="22" t="s">
+      <c r="F192" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G192" s="33" t="s">
+      <c r="G192" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="H192" s="33" t="s">
+      <c r="H192" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I192" s="45" t="s">
+      <c r="I192" s="44" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A193" s="25">
+      <c r="A193" s="24">
         <v>39013</v>
       </c>
-      <c r="B193" s="22" t="s">
+      <c r="B193" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="D193" s="21" t="s">
         <v>886</v>
       </c>
-      <c r="E193" s="22" t="s">
+      <c r="E193" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="F193" s="22" t="s">
+      <c r="F193" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G193" s="33" t="s">
+      <c r="G193" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="H193" s="33" t="s">
+      <c r="H193" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I193" s="45" t="s">
+      <c r="I193" s="44" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A194" s="25">
+      <c r="A194" s="24">
         <v>50483</v>
       </c>
-      <c r="B194" s="22" t="s">
+      <c r="B194" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="D194" s="21" t="s">
         <v>893</v>
       </c>
-      <c r="E194" s="22"/>
-      <c r="F194" s="22" t="s">
+      <c r="E194" s="21"/>
+      <c r="F194" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G194" s="38"/>
-      <c r="H194" s="38"/>
-      <c r="I194" s="22" t="s">
+      <c r="G194" s="37"/>
+      <c r="H194" s="37"/>
+      <c r="I194" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A195" s="25">
+      <c r="A195" s="24">
         <v>73341</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B195" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="D195" s="21" t="s">
         <v>896</v>
       </c>
-      <c r="E195" s="22"/>
-      <c r="F195" s="22" t="s">
+      <c r="E195" s="21"/>
+      <c r="F195" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G195" s="38"/>
-      <c r="H195" s="38"/>
-      <c r="I195" s="22" t="s">
+      <c r="G195" s="37"/>
+      <c r="H195" s="37"/>
+      <c r="I195" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A196" s="25">
+      <c r="A196" s="24">
         <v>35839</v>
       </c>
-      <c r="B196" s="22" t="s">
+      <c r="B196" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="D196" s="22" t="s">
+      <c r="D196" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="E196" s="22"/>
-      <c r="F196" s="22" t="s">
+      <c r="E196" s="21"/>
+      <c r="F196" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G196" s="38"/>
-      <c r="H196" s="38"/>
-      <c r="I196" s="22" t="s">
+      <c r="G196" s="37"/>
+      <c r="H196" s="37"/>
+      <c r="I196" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A197" s="25">
+      <c r="A197" s="24">
         <v>35127</v>
       </c>
-      <c r="B197" s="22" t="s">
+      <c r="B197" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="D197" s="22" t="s">
+      <c r="D197" s="21" t="s">
         <v>902</v>
       </c>
-      <c r="E197" s="22" t="s">
+      <c r="E197" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="F197" s="22" t="s">
+      <c r="F197" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G197" s="33" t="s">
+      <c r="G197" s="32" t="s">
         <v>904</v>
       </c>
-      <c r="H197" s="38" t="s">
+      <c r="H197" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="I197" s="45" t="s">
+      <c r="I197" s="44" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A198" s="25">
+      <c r="A198" s="24">
         <v>54087</v>
       </c>
-      <c r="B198" s="22" t="s">
+      <c r="B198" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="21" t="s">
         <v>908</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="D198" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="E198" s="22" t="s">
+      <c r="E198" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="F198" s="22"/>
-      <c r="G198" s="33" t="s">
+      <c r="F198" s="21"/>
+      <c r="G198" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="H198" s="33" t="s">
+      <c r="H198" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="I198" s="45" t="s">
+      <c r="I198" s="44" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A199" s="25">
+      <c r="A199" s="24">
         <v>70730</v>
       </c>
-      <c r="B199" s="22" t="s">
+      <c r="B199" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="D199" s="22" t="s">
+      <c r="D199" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="E199" s="22" t="s">
+      <c r="E199" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="F199" s="22" t="s">
+      <c r="F199" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G199" s="33" t="s">
+      <c r="G199" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="H199" s="34" t="s">
+      <c r="H199" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="I199" s="45" t="s">
+      <c r="I199" s="44" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A200" s="25">
+      <c r="A200" s="24">
         <v>73342</v>
       </c>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="21" t="s">
         <v>917</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="21" t="s">
         <v>918</v>
       </c>
-      <c r="D200" s="22" t="s">
+      <c r="D200" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22" t="s">
+      <c r="E200" s="21"/>
+      <c r="F200" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G200" s="38"/>
-      <c r="H200" s="38"/>
-      <c r="I200" s="22" t="s">
+      <c r="G200" s="37"/>
+      <c r="H200" s="37"/>
+      <c r="I200" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A201" s="25">
+      <c r="A201" s="24">
         <v>35266</v>
       </c>
-      <c r="B201" s="22" t="s">
+      <c r="B201" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C201" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="D201" s="22" t="s">
+      <c r="D201" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="E201" s="22" t="s">
+      <c r="E201" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="F201" s="22" t="s">
+      <c r="F201" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G201" s="33" t="s">
+      <c r="G201" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="H201" s="33" t="s">
+      <c r="H201" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="I201" s="45" t="s">
+      <c r="I201" s="44" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A202" s="25">
+      <c r="A202" s="24">
         <v>35739</v>
       </c>
-      <c r="B202" s="22" t="s">
+      <c r="B202" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="D202" s="22" t="s">
+      <c r="D202" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="E202" s="22" t="s">
+      <c r="E202" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="F202" s="22" t="s">
+      <c r="F202" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G202" s="46" t="s">
+      <c r="G202" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="H202" s="34" t="s">
+      <c r="H202" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="I202" s="43" t="s">
+      <c r="I202" s="42" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A203" s="25">
+      <c r="A203" s="24">
         <v>41916</v>
       </c>
-      <c r="B203" s="22" t="s">
+      <c r="B203" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="21" t="s">
         <v>932</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="E203" s="22" t="s">
+      <c r="E203" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="F203" s="22" t="s">
+      <c r="F203" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G203" s="33" t="s">
+      <c r="G203" s="32" t="s">
         <v>808</v>
       </c>
-      <c r="H203" s="38" t="s">
+      <c r="H203" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="I203" s="45" t="s">
+      <c r="I203" s="44" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A204" s="25">
+      <c r="A204" s="24">
         <v>54415</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="D204" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="E204" s="22" t="s">
+      <c r="E204" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="F204" s="22" t="s">
+      <c r="F204" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G204" s="33" t="s">
+      <c r="G204" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="H204" s="33" t="s">
+      <c r="H204" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I204" s="45" t="s">
+      <c r="I204" s="44" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A205" s="25">
+      <c r="A205" s="24">
         <v>54415</v>
       </c>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D205" s="22" t="s">
+      <c r="D205" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="E205" s="22" t="s">
+      <c r="E205" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="F205" s="22" t="s">
+      <c r="F205" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G205" s="33" t="s">
+      <c r="G205" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="H205" s="33" t="s">
+      <c r="H205" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I205" s="45" t="s">
+      <c r="I205" s="44" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A206" s="25">
+      <c r="A206" s="24">
         <v>54415</v>
       </c>
-      <c r="B206" s="22" t="s">
+      <c r="B206" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="C206" s="22" t="s">
+      <c r="C206" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D206" s="22" t="s">
+      <c r="D206" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="E206" s="22" t="s">
+      <c r="E206" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="F206" s="22" t="s">
+      <c r="F206" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G206" s="33" t="s">
+      <c r="G206" s="32" t="s">
         <v>825</v>
       </c>
-      <c r="H206" s="33" t="s">
+      <c r="H206" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I206" s="45" t="s">
+      <c r="I206" s="44" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A207" s="25">
+      <c r="A207" s="24">
         <v>35262</v>
       </c>
-      <c r="B207" s="22" t="s">
+      <c r="B207" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="D207" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="E207" s="22" t="s">
+      <c r="E207" s="21" t="s">
         <v>944</v>
       </c>
-      <c r="F207" s="22" t="s">
+      <c r="F207" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G207" s="33" t="s">
+      <c r="G207" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="H207" s="40" t="s">
+      <c r="H207" s="39" t="s">
         <v>945</v>
       </c>
-      <c r="I207" s="45" t="s">
+      <c r="I207" s="44" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A208" s="25">
+      <c r="A208" s="24">
         <v>54159</v>
       </c>
-      <c r="B208" s="22" t="s">
+      <c r="B208" s="21" t="s">
         <v>947</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="21" t="s">
         <v>948</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D208" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="E208" s="22"/>
-      <c r="F208" s="22" t="s">
+      <c r="E208" s="21"/>
+      <c r="F208" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G208" s="38"/>
-      <c r="H208" s="38"/>
-      <c r="I208" s="22" t="s">
+      <c r="G208" s="37"/>
+      <c r="H208" s="37"/>
+      <c r="I208" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A209" s="25">
+      <c r="A209" s="24">
         <v>54158</v>
       </c>
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="21" t="s">
         <v>950</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="E209" s="22"/>
-      <c r="F209" s="22" t="s">
+      <c r="E209" s="21"/>
+      <c r="F209" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G209" s="38"/>
-      <c r="H209" s="38"/>
-      <c r="I209" s="22" t="s">
+      <c r="G209" s="37"/>
+      <c r="H209" s="37"/>
+      <c r="I209" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A210" s="25">
+      <c r="A210" s="24">
         <v>50486</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="21" t="s">
         <v>954</v>
       </c>
-      <c r="E210" s="22"/>
-      <c r="F210" s="22" t="s">
+      <c r="E210" s="21"/>
+      <c r="F210" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="38"/>
-      <c r="H210" s="38"/>
-      <c r="I210" s="22" t="s">
+      <c r="G210" s="37"/>
+      <c r="H210" s="37"/>
+      <c r="I210" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A211" s="25">
+      <c r="A211" s="24">
         <v>35108</v>
       </c>
-      <c r="B211" s="22" t="s">
+      <c r="B211" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="E211" s="22" t="s">
+      <c r="E211" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="F211" s="22" t="s">
+      <c r="F211" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G211" s="33" t="s">
+      <c r="G211" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="H211" s="33" t="s">
+      <c r="H211" s="32" t="s">
         <v>945</v>
       </c>
-      <c r="I211" s="45" t="s">
+      <c r="I211" s="44" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A212" s="25">
+      <c r="A212" s="24">
         <v>39030</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B212" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="D212" s="22" t="s">
+      <c r="D212" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="E212" s="22" t="s">
+      <c r="E212" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="F212" s="22" t="s">
+      <c r="F212" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G212" s="31" t="s">
+      <c r="G212" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="H212" s="38" t="s">
+      <c r="H212" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="I212" s="38" t="s">
+      <c r="I212" s="37" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A213" s="25">
+      <c r="A213" s="24">
         <v>54138</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B213" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="D213" s="22" t="s">
+      <c r="D213" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="E213" s="22" t="s">
+      <c r="E213" s="21" t="s">
         <v>969</v>
       </c>
-      <c r="F213" s="22" t="s">
+      <c r="F213" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G213" s="33" t="s">
+      <c r="G213" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="H213" s="33" t="s">
+      <c r="H213" s="32" t="s">
         <v>971</v>
       </c>
-      <c r="I213" s="45" t="s">
+      <c r="I213" s="44" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A214" s="25">
+      <c r="A214" s="24">
         <v>53656</v>
       </c>
-      <c r="B214" s="22" t="s">
+      <c r="B214" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="C214" s="22" t="s">
+      <c r="C214" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="D214" s="22" t="s">
+      <c r="D214" s="21" t="s">
         <v>975</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="21" t="s">
         <v>976</v>
       </c>
-      <c r="F214" s="22" t="s">
+      <c r="F214" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G214" s="33" t="s">
+      <c r="G214" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="H214" s="33" t="s">
+      <c r="H214" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="I214" s="45" t="s">
+      <c r="I214" s="44" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A215" s="25">
+      <c r="A215" s="24">
         <v>52424</v>
       </c>
-      <c r="B215" s="22" t="s">
+      <c r="B215" s="21" t="s">
         <v>979</v>
       </c>
-      <c r="C215" s="22" t="s">
+      <c r="C215" s="21" t="s">
         <v>980</v>
       </c>
-      <c r="D215" s="22" t="s">
+      <c r="D215" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="E215" s="22" t="s">
+      <c r="E215" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="F215" s="22" t="s">
+      <c r="F215" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G215" s="40" t="s">
+      <c r="G215" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="H215" s="33" t="s">
+      <c r="H215" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="I215" s="45" t="s">
+      <c r="I215" s="44" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A216" s="25">
+      <c r="A216" s="24">
         <v>35277</v>
       </c>
-      <c r="B216" s="22" t="s">
+      <c r="B216" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="21" t="s">
         <v>987</v>
       </c>
-      <c r="D216" s="22" t="s">
+      <c r="D216" s="21" t="s">
         <v>988</v>
       </c>
-      <c r="E216" s="22" t="s">
+      <c r="E216" s="21" t="s">
         <v>989</v>
       </c>
-      <c r="F216" s="22" t="s">
+      <c r="F216" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G216" s="33" t="s">
+      <c r="G216" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="H216" s="33" t="s">
+      <c r="H216" s="32" t="s">
         <v>990</v>
       </c>
-      <c r="I216" s="45" t="s">
+      <c r="I216" s="44" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A217" s="25">
+      <c r="A217" s="24">
         <v>35122</v>
       </c>
-      <c r="B217" s="22" t="s">
+      <c r="B217" s="21" t="s">
         <v>992</v>
       </c>
-      <c r="C217" s="22" t="s">
+      <c r="C217" s="21" t="s">
         <v>993</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="D217" s="21" t="s">
         <v>994</v>
       </c>
-      <c r="E217" s="22" t="s">
+      <c r="E217" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="F217" s="22" t="s">
+      <c r="F217" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G217" s="33" t="s">
+      <c r="G217" s="32" t="s">
         <v>996</v>
       </c>
-      <c r="H217" s="38" t="s">
+      <c r="H217" s="37" t="s">
         <v>997</v>
       </c>
-      <c r="I217" s="45" t="s">
+      <c r="I217" s="44" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A218" s="25">
+      <c r="A218" s="24">
         <v>35122</v>
       </c>
-      <c r="B218" s="22" t="s">
+      <c r="B218" s="21" t="s">
         <v>992</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C218" s="21" t="s">
         <v>993</v>
       </c>
-      <c r="D218" s="22" t="s">
+      <c r="D218" s="21" t="s">
         <v>994</v>
       </c>
-      <c r="E218" s="22" t="s">
+      <c r="E218" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="F218" s="22" t="s">
+      <c r="F218" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G218" s="33" t="s">
+      <c r="G218" s="32" t="s">
         <v>999</v>
       </c>
-      <c r="H218" s="38" t="s">
+      <c r="H218" s="37" t="s">
         <v>1000</v>
       </c>
-      <c r="I218" s="45" t="s">
+      <c r="I218" s="44" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A219" s="25">
+      <c r="A219" s="24">
         <v>53541</v>
       </c>
-      <c r="B219" s="22" t="s">
+      <c r="B219" s="21" t="s">
         <v>1002</v>
       </c>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="D219" s="22" t="s">
+      <c r="D219" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="E219" s="22" t="s">
+      <c r="E219" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="F219" s="22" t="s">
+      <c r="F219" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G219" s="33" t="s">
+      <c r="G219" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="H219" s="43" t="s">
+      <c r="H219" s="42" t="s">
         <v>1006</v>
       </c>
-      <c r="I219" s="45" t="s">
+      <c r="I219" s="44" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A220" s="25">
+      <c r="A220" s="24">
         <v>53541</v>
       </c>
-      <c r="B220" s="22" t="s">
+      <c r="B220" s="21" t="s">
         <v>1002</v>
       </c>
-      <c r="C220" s="22" t="s">
+      <c r="C220" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="D220" s="22" t="s">
+      <c r="D220" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="E220" s="22" t="s">
+      <c r="E220" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="F220" s="22" t="s">
+      <c r="F220" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G220" s="33" t="s">
+      <c r="G220" s="32" t="s">
         <v>1008</v>
       </c>
-      <c r="H220" s="43" t="s">
+      <c r="H220" s="42" t="s">
         <v>1006</v>
       </c>
-      <c r="I220" s="45" t="s">
+      <c r="I220" s="44" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A221" s="25">
+      <c r="A221" s="24">
         <v>53541</v>
       </c>
-      <c r="B221" s="22" t="s">
+      <c r="B221" s="21" t="s">
         <v>1002</v>
       </c>
-      <c r="C221" s="22" t="s">
+      <c r="C221" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D221" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="E221" s="22" t="s">
+      <c r="E221" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="F221" s="22" t="s">
+      <c r="F221" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G221" s="38" t="s">
+      <c r="G221" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H221" s="43" t="s">
+      <c r="H221" s="42" t="s">
         <v>1006</v>
       </c>
-      <c r="I221" s="43" t="s">
+      <c r="I221" s="42" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A222" s="25">
+      <c r="A222" s="24">
         <v>71792</v>
       </c>
-      <c r="B222" s="22" t="s">
+      <c r="B222" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="C222" s="22" t="s">
+      <c r="C222" s="21" t="s">
         <v>1012</v>
       </c>
-      <c r="D222" s="22" t="s">
+      <c r="D222" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="E222" s="22" t="s">
+      <c r="E222" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="F222" s="22" t="s">
+      <c r="F222" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="38" t="s">
+      <c r="G222" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H222" s="38" t="s">
+      <c r="H222" s="37" t="s">
         <v>1015</v>
       </c>
-      <c r="I222" s="45" t="s">
+      <c r="I222" s="44" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A223" s="25">
+      <c r="A223" s="24">
         <v>71792</v>
       </c>
-      <c r="B223" s="22" t="s">
+      <c r="B223" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="C223" s="22" t="s">
+      <c r="C223" s="21" t="s">
         <v>1012</v>
       </c>
-      <c r="D223" s="22" t="s">
+      <c r="D223" s="21" t="s">
         <v>1013</v>
       </c>
-      <c r="E223" s="22" t="s">
+      <c r="E223" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="F223" s="22" t="s">
+      <c r="F223" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G223" s="38" t="s">
+      <c r="G223" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H223" s="38" t="s">
+      <c r="H223" s="37" t="s">
         <v>1017</v>
       </c>
-      <c r="I223" s="45" t="s">
+      <c r="I223" s="44" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A224" s="25">
+      <c r="A224" s="24">
         <v>53820</v>
       </c>
-      <c r="B224" s="22" t="s">
+      <c r="B224" s="21" t="s">
         <v>1019</v>
       </c>
-      <c r="C224" s="22" t="s">
+      <c r="C224" s="21" t="s">
         <v>1020</v>
       </c>
-      <c r="D224" s="22" t="s">
+      <c r="D224" s="21" t="s">
         <v>1021</v>
       </c>
-      <c r="E224" s="22" t="s">
+      <c r="E224" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="F224" s="22" t="s">
+      <c r="F224" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G224" s="33" t="s">
+      <c r="G224" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="H224" s="33" t="s">
+      <c r="H224" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="I224" s="45" t="s">
+      <c r="I224" s="44" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A225" s="25">
+      <c r="A225" s="24">
         <v>70007</v>
       </c>
-      <c r="B225" s="22" t="s">
+      <c r="B225" s="21" t="s">
         <v>1023</v>
       </c>
-      <c r="C225" s="22" t="s">
+      <c r="C225" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="D225" s="22" t="s">
+      <c r="D225" s="21" t="s">
         <v>1025</v>
       </c>
-      <c r="E225" s="22"/>
-      <c r="F225" s="22" t="s">
+      <c r="E225" s="21"/>
+      <c r="F225" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G225" s="38"/>
-      <c r="H225" s="38"/>
-      <c r="I225" s="22" t="s">
+      <c r="G225" s="37"/>
+      <c r="H225" s="37"/>
+      <c r="I225" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A226" s="25">
+      <c r="A226" s="24">
         <v>54315</v>
       </c>
-      <c r="B226" s="22" t="s">
+      <c r="B226" s="21" t="s">
         <v>1026</v>
       </c>
-      <c r="C226" s="22" t="s">
+      <c r="C226" s="21" t="s">
         <v>1027</v>
       </c>
-      <c r="D226" s="22" t="s">
+      <c r="D226" s="21" t="s">
         <v>1028</v>
       </c>
-      <c r="E226" s="22" t="s">
+      <c r="E226" s="21" t="s">
         <v>1029</v>
       </c>
-      <c r="F226" s="22" t="s">
+      <c r="F226" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G226" s="33" t="s">
+      <c r="G226" s="32" t="s">
         <v>904</v>
       </c>
-      <c r="H226" s="33" t="s">
+      <c r="H226" s="32" t="s">
         <v>1030</v>
       </c>
-      <c r="I226" s="45" t="s">
+      <c r="I226" s="44" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A227" s="25">
+      <c r="A227" s="24">
         <v>54420</v>
       </c>
-      <c r="B227" s="22" t="s">
+      <c r="B227" s="21" t="s">
         <v>1032</v>
       </c>
-      <c r="C227" s="22" t="s">
+      <c r="C227" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="D227" s="22" t="s">
+      <c r="D227" s="21" t="s">
         <v>1034</v>
       </c>
-      <c r="E227" s="22" t="s">
+      <c r="E227" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="F227" s="22" t="s">
+      <c r="F227" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G227" s="33" t="s">
+      <c r="G227" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="H227" s="33" t="s">
+      <c r="H227" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="I227" s="45" t="s">
+      <c r="I227" s="44" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A228" s="25">
+      <c r="A228" s="24">
         <v>53872</v>
       </c>
-      <c r="B228" s="22" t="s">
+      <c r="B228" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="21" t="s">
         <v>1037</v>
       </c>
-      <c r="D228" s="22" t="s">
+      <c r="D228" s="21" t="s">
         <v>1038</v>
       </c>
-      <c r="E228" s="22" t="s">
+      <c r="E228" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="F228" s="22" t="s">
+      <c r="F228" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G228" s="38" t="s">
+      <c r="G228" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H228" s="38" t="s">
+      <c r="H228" s="37" t="s">
         <v>1015</v>
       </c>
-      <c r="I228" s="45" t="s">
+      <c r="I228" s="44" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A229" s="25">
+      <c r="A229" s="24">
         <v>53872</v>
       </c>
-      <c r="B229" s="22" t="s">
+      <c r="B229" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="C229" s="22" t="s">
+      <c r="C229" s="21" t="s">
         <v>1037</v>
       </c>
-      <c r="D229" s="22" t="s">
+      <c r="D229" s="21" t="s">
         <v>1038</v>
       </c>
-      <c r="E229" s="22" t="s">
+      <c r="E229" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="F229" s="22" t="s">
+      <c r="F229" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G229" s="38" t="s">
+      <c r="G229" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H229" s="38" t="s">
+      <c r="H229" s="37" t="s">
         <v>1017</v>
       </c>
-      <c r="I229" s="45" t="s">
+      <c r="I229" s="44" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A230" s="25">
+      <c r="A230" s="24">
         <v>52525</v>
       </c>
-      <c r="B230" s="22" t="s">
+      <c r="B230" s="21" t="s">
         <v>1040</v>
       </c>
-      <c r="C230" s="22" t="s">
+      <c r="C230" s="21" t="s">
         <v>1041</v>
       </c>
-      <c r="D230" s="22" t="s">
+      <c r="D230" s="21" t="s">
         <v>1042</v>
       </c>
-      <c r="E230" s="22" t="s">
+      <c r="E230" s="21" t="s">
         <v>1043</v>
       </c>
-      <c r="F230" s="22" t="s">
+      <c r="F230" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G230" s="33" t="s">
+      <c r="G230" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="H230" s="40" t="s">
+      <c r="H230" s="39" t="s">
         <v>1044</v>
       </c>
-      <c r="I230" s="45" t="s">
+      <c r="I230" s="44" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A231" s="25">
+      <c r="A231" s="24">
         <v>56551</v>
       </c>
-      <c r="B231" s="22" t="s">
+      <c r="B231" s="21" t="s">
         <v>1046</v>
       </c>
-      <c r="C231" s="22" t="s">
+      <c r="C231" s="21" t="s">
         <v>1047</v>
       </c>
-      <c r="D231" s="22" t="s">
+      <c r="D231" s="21" t="s">
         <v>1048</v>
       </c>
-      <c r="E231" s="22"/>
-      <c r="F231" s="22" t="s">
+      <c r="E231" s="21"/>
+      <c r="F231" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G231" s="38"/>
-      <c r="H231" s="38"/>
-      <c r="I231" s="45" t="s">
+      <c r="G231" s="37"/>
+      <c r="H231" s="37"/>
+      <c r="I231" s="44" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A232" s="25">
+      <c r="A232" s="24">
         <v>35120</v>
       </c>
-      <c r="B232" s="22" t="s">
+      <c r="B232" s="21" t="s">
         <v>1050</v>
       </c>
-      <c r="C232" s="22" t="s">
+      <c r="C232" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="D232" s="22" t="s">
+      <c r="D232" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="E232" s="22"/>
-      <c r="F232" s="22" t="s">
+      <c r="E232" s="21"/>
+      <c r="F232" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G232" s="38"/>
-      <c r="H232" s="38"/>
-      <c r="I232" s="45" t="s">
+      <c r="G232" s="37"/>
+      <c r="H232" s="37"/>
+      <c r="I232" s="44" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A233" s="25">
+      <c r="A233" s="24">
         <v>54423</v>
       </c>
-      <c r="B233" s="22" t="s">
+      <c r="B233" s="21" t="s">
         <v>1054</v>
       </c>
-      <c r="C233" s="22" t="s">
+      <c r="C233" s="21" t="s">
         <v>1055</v>
       </c>
-      <c r="D233" s="22" t="s">
+      <c r="D233" s="21" t="s">
         <v>1056</v>
       </c>
-      <c r="E233" s="22" t="s">
+      <c r="E233" s="21" t="s">
         <v>1057</v>
       </c>
-      <c r="F233" s="22" t="s">
+      <c r="F233" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G233" s="33" t="s">
+      <c r="G233" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="H233" s="40" t="s">
+      <c r="H233" s="39" t="s">
         <v>1044</v>
       </c>
-      <c r="I233" s="45" t="s">
+      <c r="I233" s="44" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A234" s="25">
+      <c r="A234" s="24">
         <v>37286</v>
       </c>
-      <c r="B234" s="22" t="s">
+      <c r="B234" s="21" t="s">
         <v>1059</v>
       </c>
-      <c r="C234" s="22" t="s">
+      <c r="C234" s="21" t="s">
         <v>1060</v>
       </c>
-      <c r="D234" s="22" t="s">
+      <c r="D234" s="21" t="s">
         <v>1061</v>
       </c>
-      <c r="E234" s="22"/>
-      <c r="F234" s="22" t="s">
+      <c r="E234" s="21"/>
+      <c r="F234" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G234" s="38"/>
-      <c r="H234" s="38"/>
-      <c r="I234" s="45" t="s">
+      <c r="G234" s="37"/>
+      <c r="H234" s="37"/>
+      <c r="I234" s="44" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A235" s="25">
+      <c r="A235" s="24">
         <v>43298</v>
       </c>
-      <c r="B235" s="22" t="s">
+      <c r="B235" s="21" t="s">
         <v>1063</v>
       </c>
-      <c r="C235" s="22" t="s">
+      <c r="C235" s="21" t="s">
         <v>1064</v>
       </c>
-      <c r="D235" s="22" t="s">
+      <c r="D235" s="21" t="s">
         <v>1065</v>
       </c>
-      <c r="E235" s="22"/>
-      <c r="F235" s="22" t="s">
+      <c r="E235" s="21"/>
+      <c r="F235" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G235" s="38"/>
-      <c r="H235" s="38"/>
-      <c r="I235" s="45" t="s">
+      <c r="G235" s="37"/>
+      <c r="H235" s="37"/>
+      <c r="I235" s="44" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A236" s="25">
+      <c r="A236" s="24">
         <v>37016</v>
       </c>
-      <c r="B236" s="22" t="s">
+      <c r="B236" s="21" t="s">
         <v>1067</v>
       </c>
-      <c r="C236" s="22" t="s">
+      <c r="C236" s="21" t="s">
         <v>1068</v>
       </c>
-      <c r="D236" s="22" t="s">
+      <c r="D236" s="21" t="s">
         <v>1069</v>
       </c>
-      <c r="E236" s="22" t="s">
+      <c r="E236" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F236" s="22" t="s">
+      <c r="F236" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G236" s="33" t="s">
+      <c r="G236" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H236" s="33" t="s">
+      <c r="H236" s="32" t="s">
         <v>1070</v>
       </c>
-      <c r="I236" s="45" t="s">
+      <c r="I236" s="44" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A237" s="25">
+      <c r="A237" s="24">
         <v>35902</v>
       </c>
-      <c r="B237" s="22" t="s">
+      <c r="B237" s="21" t="s">
         <v>1072</v>
       </c>
-      <c r="C237" s="22" t="s">
+      <c r="C237" s="21" t="s">
         <v>1073</v>
       </c>
-      <c r="D237" s="22" t="s">
+      <c r="D237" s="21" t="s">
         <v>1074</v>
       </c>
-      <c r="E237" s="22"/>
-      <c r="F237" s="22" t="s">
+      <c r="E237" s="21"/>
+      <c r="F237" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G237" s="38"/>
-      <c r="H237" s="38"/>
-      <c r="I237" s="45" t="s">
+      <c r="G237" s="37"/>
+      <c r="H237" s="37"/>
+      <c r="I237" s="44" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A238" s="25">
+      <c r="A238" s="24">
         <v>52431</v>
       </c>
-      <c r="B238" s="22" t="s">
+      <c r="B238" s="21" t="s">
         <v>1076</v>
       </c>
-      <c r="C238" s="22" t="s">
+      <c r="C238" s="21" t="s">
         <v>1077</v>
       </c>
-      <c r="D238" s="22" t="s">
+      <c r="D238" s="21" t="s">
         <v>1078</v>
       </c>
-      <c r="E238" s="22" t="s">
+      <c r="E238" s="21" t="s">
         <v>1079</v>
       </c>
-      <c r="F238" s="22" t="s">
+      <c r="F238" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G238" s="33" t="s">
+      <c r="G238" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H238" s="34" t="s">
+      <c r="H238" s="33" t="s">
         <v>1080</v>
       </c>
-      <c r="I238" s="45" t="s">
+      <c r="I238" s="44" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A239" s="25">
+      <c r="A239" s="24">
         <v>38996</v>
       </c>
-      <c r="B239" s="22" t="s">
+      <c r="B239" s="21" t="s">
         <v>1082</v>
       </c>
-      <c r="C239" s="22" t="s">
+      <c r="C239" s="21" t="s">
         <v>1083</v>
       </c>
-      <c r="D239" s="22" t="s">
+      <c r="D239" s="21" t="s">
         <v>1084</v>
       </c>
-      <c r="E239" s="22" t="s">
+      <c r="E239" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="F239" s="22" t="s">
+      <c r="F239" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G239" s="33" t="s">
+      <c r="G239" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H239" s="34" t="s">
+      <c r="H239" s="33" t="s">
         <v>1085</v>
       </c>
-      <c r="I239" s="38" t="s">
+      <c r="I239" s="37" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A240" s="25">
+      <c r="A240" s="24">
         <v>36237</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B240" s="21" t="s">
         <v>1087</v>
       </c>
-      <c r="C240" s="22" t="s">
+      <c r="C240" s="21" t="s">
         <v>1088</v>
       </c>
-      <c r="D240" s="22" t="s">
+      <c r="D240" s="21" t="s">
         <v>1089</v>
       </c>
-      <c r="E240" s="22" t="s">
+      <c r="E240" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="F240" s="22" t="s">
+      <c r="F240" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G240" s="33" t="s">
+      <c r="G240" s="32" t="s">
         <v>864</v>
       </c>
-      <c r="H240" s="34" t="s">
+      <c r="H240" s="33" t="s">
         <v>865</v>
       </c>
-      <c r="I240" s="45" t="s">
+      <c r="I240" s="44" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A241" s="25">
+      <c r="A241" s="24">
         <v>72697</v>
       </c>
-      <c r="B241" s="22" t="s">
+      <c r="B241" s="21" t="s">
         <v>1091</v>
       </c>
-      <c r="C241" s="22" t="s">
+      <c r="C241" s="21" t="s">
         <v>1092</v>
       </c>
-      <c r="D241" s="22" t="s">
+      <c r="D241" s="21" t="s">
         <v>1093</v>
       </c>
-      <c r="E241" s="22"/>
-      <c r="F241" s="22" t="s">
+      <c r="E241" s="21"/>
+      <c r="F241" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G241" s="33" t="s">
+      <c r="G241" s="32" t="s">
         <v>1094</v>
       </c>
-      <c r="H241" s="38" t="s">
+      <c r="H241" s="37" t="s">
         <v>1095</v>
       </c>
-      <c r="I241" s="45" t="s">
+      <c r="I241" s="44" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A242" s="25">
+      <c r="A242" s="24">
         <v>72698</v>
       </c>
-      <c r="B242" s="22" t="s">
+      <c r="B242" s="21" t="s">
         <v>1097</v>
       </c>
-      <c r="C242" s="22" t="s">
+      <c r="C242" s="21" t="s">
         <v>1098</v>
       </c>
-      <c r="D242" s="22" t="s">
+      <c r="D242" s="21" t="s">
         <v>1099</v>
       </c>
-      <c r="E242" s="22"/>
-      <c r="F242" s="22" t="s">
+      <c r="E242" s="21"/>
+      <c r="F242" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G242" s="38"/>
-      <c r="H242" s="33" t="s">
+      <c r="G242" s="37"/>
+      <c r="H242" s="32" t="s">
         <v>1100</v>
       </c>
-      <c r="I242" s="45" t="s">
+      <c r="I242" s="44" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A243" s="25">
+      <c r="A243" s="24">
         <v>72710</v>
       </c>
-      <c r="B243" s="22" t="s">
+      <c r="B243" s="21" t="s">
         <v>1102</v>
       </c>
-      <c r="C243" s="22" t="s">
+      <c r="C243" s="21" t="s">
         <v>1103</v>
       </c>
-      <c r="D243" s="22" t="s">
+      <c r="D243" s="21" t="s">
         <v>1104</v>
       </c>
-      <c r="E243" s="22" t="s">
+      <c r="E243" s="21" t="s">
         <v>1105</v>
       </c>
-      <c r="F243" s="22" t="s">
+      <c r="F243" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G243" s="38" t="s">
+      <c r="G243" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H243" s="34" t="s">
+      <c r="H243" s="33" t="s">
         <v>1106</v>
       </c>
-      <c r="I243" s="38" t="s">
+      <c r="I243" s="37" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A244" s="25">
+      <c r="A244" s="24">
         <v>35306</v>
       </c>
-      <c r="B244" s="22" t="s">
+      <c r="B244" s="21" t="s">
         <v>1108</v>
       </c>
-      <c r="C244" s="22" t="s">
+      <c r="C244" s="21" t="s">
         <v>1109</v>
       </c>
-      <c r="D244" s="22" t="s">
+      <c r="D244" s="21" t="s">
         <v>1110</v>
       </c>
-      <c r="E244" s="22" t="s">
+      <c r="E244" s="21" t="s">
         <v>1111</v>
       </c>
-      <c r="F244" s="22" t="s">
+      <c r="F244" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G244" s="33" t="s">
+      <c r="G244" s="32" t="s">
         <v>837</v>
       </c>
-      <c r="H244" s="38" t="s">
+      <c r="H244" s="37" t="s">
         <v>1112</v>
       </c>
-      <c r="I244" s="45" t="s">
+      <c r="I244" s="44" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A245" s="25">
+      <c r="A245" s="24">
         <v>52660</v>
       </c>
-      <c r="B245" s="22" t="s">
+      <c r="B245" s="21" t="s">
         <v>1114</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="21" t="s">
         <v>1115</v>
       </c>
-      <c r="D245" s="22" t="s">
+      <c r="D245" s="21" t="s">
         <v>1116</v>
       </c>
-      <c r="E245" s="22" t="s">
+      <c r="E245" s="21" t="s">
         <v>1117</v>
       </c>
-      <c r="F245" s="22" t="s">
+      <c r="F245" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G245" s="38" t="s">
+      <c r="G245" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="H245" s="38" t="s">
+      <c r="H245" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="I245" s="38" t="s">
+      <c r="I245" s="37" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A246" s="25">
+      <c r="A246" s="24">
         <v>72395</v>
       </c>
-      <c r="B246" s="22" t="s">
+      <c r="B246" s="21" t="s">
         <v>1118</v>
       </c>
-      <c r="C246" s="22" t="s">
+      <c r="C246" s="21" t="s">
         <v>1119</v>
       </c>
-      <c r="D246" s="22" t="s">
+      <c r="D246" s="21" t="s">
         <v>1120</v>
       </c>
-      <c r="E246" s="22" t="s">
+      <c r="E246" s="21" t="s">
         <v>1121</v>
       </c>
-      <c r="F246" s="22" t="s">
+      <c r="F246" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G246" s="33" t="s">
+      <c r="G246" s="32" t="s">
         <v>1122</v>
       </c>
-      <c r="H246" s="33" t="s">
+      <c r="H246" s="32" t="s">
         <v>1123</v>
       </c>
-      <c r="I246" s="45" t="s">
+      <c r="I246" s="44" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A247" s="25">
+      <c r="A247" s="24">
         <v>36242</v>
       </c>
-      <c r="B247" s="22" t="s">
+      <c r="B247" s="21" t="s">
         <v>1125</v>
       </c>
-      <c r="C247" s="22" t="s">
+      <c r="C247" s="21" t="s">
         <v>1126</v>
       </c>
-      <c r="D247" s="22" t="s">
+      <c r="D247" s="21" t="s">
         <v>1127</v>
       </c>
-      <c r="E247" s="22" t="s">
+      <c r="E247" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F247" s="22" t="s">
+      <c r="F247" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G247" s="33" t="s">
+      <c r="G247" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H247" s="34" t="s">
+      <c r="H247" s="33" t="s">
         <v>1128</v>
       </c>
-      <c r="I247" s="45" t="s">
+      <c r="I247" s="44" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A248" s="25">
+      <c r="A248" s="24">
         <v>54317</v>
       </c>
-      <c r="B248" s="22" t="s">
+      <c r="B248" s="21" t="s">
         <v>1130</v>
       </c>
-      <c r="C248" s="22" t="s">
+      <c r="C248" s="21" t="s">
         <v>1131</v>
       </c>
-      <c r="D248" s="22" t="s">
+      <c r="D248" s="21" t="s">
         <v>1132</v>
       </c>
-      <c r="E248" s="22" t="s">
+      <c r="E248" s="21" t="s">
         <v>1133</v>
       </c>
-      <c r="F248" s="22" t="s">
+      <c r="F248" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G248" s="33" t="s">
+      <c r="G248" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="H248" s="34" t="s">
+      <c r="H248" s="33" t="s">
         <v>1134</v>
       </c>
-      <c r="I248" s="38" t="s">
+      <c r="I248" s="37" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A249" s="25">
+      <c r="A249" s="24">
         <v>53675</v>
       </c>
-      <c r="B249" s="22" t="s">
+      <c r="B249" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C249" s="22" t="s">
+      <c r="C249" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="D249" s="22" t="s">
+      <c r="D249" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="E249" s="22" t="s">
+      <c r="E249" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="F249" s="22" t="s">
+      <c r="F249" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G249" s="33" t="s">
+      <c r="G249" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="H249" s="47" t="s">
+      <c r="H249" s="46" t="s">
         <v>1140</v>
       </c>
-      <c r="I249" s="38" t="s">
+      <c r="I249" s="37" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A250" s="25">
+      <c r="A250" s="24">
         <v>70753</v>
       </c>
-      <c r="B250" s="22" t="s">
+      <c r="B250" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="C250" s="22" t="s">
+      <c r="C250" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="D250" s="22" t="s">
+      <c r="D250" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="E250" s="22" t="s">
+      <c r="E250" s="21" t="s">
         <v>1145</v>
       </c>
-      <c r="F250" s="22" t="s">
+      <c r="F250" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G250" s="33" t="s">
+      <c r="G250" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="H250" s="40" t="s">
+      <c r="H250" s="39" t="s">
         <v>1146</v>
       </c>
-      <c r="I250" s="45" t="s">
+      <c r="I250" s="44" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A251" s="25">
+      <c r="A251" s="24">
         <v>37131</v>
       </c>
-      <c r="B251" s="22" t="s">
+      <c r="B251" s="21" t="s">
         <v>1148</v>
       </c>
-      <c r="C251" s="22" t="s">
+      <c r="C251" s="21" t="s">
         <v>1149</v>
       </c>
-      <c r="D251" s="22" t="s">
+      <c r="D251" s="21" t="s">
         <v>1150</v>
       </c>
-      <c r="E251" s="22" t="s">
+      <c r="E251" s="21" t="s">
         <v>1151</v>
       </c>
-      <c r="F251" s="22" t="s">
+      <c r="F251" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G251" s="33" t="s">
+      <c r="G251" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="H251" s="33" t="s">
+      <c r="H251" s="32" t="s">
         <v>1153</v>
       </c>
-      <c r="I251" s="45" t="s">
+      <c r="I251" s="44" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A252" s="25">
+      <c r="A252" s="24">
         <v>53645</v>
       </c>
-      <c r="B252" s="22" t="s">
+      <c r="B252" s="21" t="s">
         <v>1155</v>
       </c>
-      <c r="C252" s="22" t="s">
+      <c r="C252" s="21" t="s">
         <v>1156</v>
       </c>
-      <c r="D252" s="22" t="s">
+      <c r="D252" s="21" t="s">
         <v>1157</v>
       </c>
-      <c r="E252" s="22" t="s">
+      <c r="E252" s="21" t="s">
         <v>1158</v>
       </c>
-      <c r="F252" s="22" t="s">
+      <c r="F252" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G252" s="38"/>
-      <c r="H252" s="33" t="s">
+      <c r="G252" s="37"/>
+      <c r="H252" s="32" t="s">
         <v>1159</v>
       </c>
-      <c r="I252" s="45" t="s">
+      <c r="I252" s="44" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A253" s="25">
+      <c r="A253" s="24">
         <v>35124</v>
       </c>
-      <c r="B253" s="22" t="s">
+      <c r="B253" s="21" t="s">
         <v>1161</v>
       </c>
-      <c r="C253" s="22" t="s">
+      <c r="C253" s="21" t="s">
         <v>1162</v>
       </c>
-      <c r="D253" s="22" t="s">
+      <c r="D253" s="21" t="s">
         <v>1163</v>
       </c>
-      <c r="E253" s="22" t="s">
+      <c r="E253" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="F253" s="22" t="s">
+      <c r="F253" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G253" s="40" t="s">
+      <c r="G253" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="H253" s="33" t="s">
+      <c r="H253" s="32" t="s">
         <v>1164</v>
       </c>
-      <c r="I253" s="45" t="s">
+      <c r="I253" s="44" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A254" s="25">
+      <c r="A254" s="24">
         <v>72688</v>
       </c>
-      <c r="B254" s="22" t="s">
+      <c r="B254" s="21" t="s">
         <v>1166</v>
       </c>
-      <c r="C254" s="22" t="s">
+      <c r="C254" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="D254" s="22" t="s">
+      <c r="D254" s="21" t="s">
         <v>1168</v>
       </c>
-      <c r="E254" s="22" t="s">
+      <c r="E254" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="F254" s="22" t="s">
+      <c r="F254" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G254" s="40" t="s">
+      <c r="G254" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="H254" s="33" t="s">
+      <c r="H254" s="32" t="s">
         <v>1164</v>
       </c>
-      <c r="I254" s="45" t="s">
+      <c r="I254" s="44" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A255" s="25">
+      <c r="A255" s="24">
         <v>53985</v>
       </c>
-      <c r="B255" s="22" t="s">
+      <c r="B255" s="21" t="s">
         <v>1170</v>
       </c>
-      <c r="C255" s="22" t="s">
+      <c r="C255" s="21" t="s">
         <v>1171</v>
       </c>
-      <c r="D255" s="22" t="s">
+      <c r="D255" s="21" t="s">
         <v>1172</v>
       </c>
-      <c r="E255" s="22" t="s">
+      <c r="E255" s="21" t="s">
         <v>1173</v>
       </c>
-      <c r="F255" s="22" t="s">
+      <c r="F255" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G255" s="33" t="s">
+      <c r="G255" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="H255" s="33" t="s">
+      <c r="H255" s="32" t="s">
         <v>1174</v>
       </c>
-      <c r="I255" s="45" t="s">
+      <c r="I255" s="44" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A256" s="25">
+      <c r="A256" s="24">
         <v>54287</v>
       </c>
-      <c r="B256" s="22" t="s">
+      <c r="B256" s="21" t="s">
         <v>1176</v>
       </c>
-      <c r="C256" s="22" t="s">
+      <c r="C256" s="21" t="s">
         <v>1177</v>
       </c>
-      <c r="D256" s="22" t="s">
+      <c r="D256" s="21" t="s">
         <v>1178</v>
       </c>
-      <c r="E256" s="22" t="s">
+      <c r="E256" s="21" t="s">
         <v>1179</v>
       </c>
-      <c r="F256" s="22" t="s">
+      <c r="F256" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G256" s="33" t="s">
+      <c r="G256" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="H256" s="33" t="s">
+      <c r="H256" s="32" t="s">
         <v>1174</v>
       </c>
-      <c r="I256" s="45" t="s">
+      <c r="I256" s="44" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A257" s="25">
+      <c r="A257" s="24">
         <v>35316</v>
       </c>
-      <c r="B257" s="22" t="s">
+      <c r="B257" s="21" t="s">
         <v>1181</v>
       </c>
-      <c r="C257" s="22" t="s">
+      <c r="C257" s="21" t="s">
         <v>1182</v>
       </c>
-      <c r="D257" s="22" t="s">
+      <c r="D257" s="21" t="s">
         <v>1183</v>
       </c>
-      <c r="E257" s="22" t="s">
+      <c r="E257" s="21" t="s">
         <v>1184</v>
       </c>
-      <c r="F257" s="22" t="s">
+      <c r="F257" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G257" s="33" t="s">
+      <c r="G257" s="32" t="s">
         <v>1185</v>
       </c>
-      <c r="H257" s="33" t="s">
+      <c r="H257" s="32" t="s">
         <v>1186</v>
       </c>
-      <c r="I257" s="45" t="s">
+      <c r="I257" s="44" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A258" s="25">
+      <c r="A258" s="24">
         <v>38995</v>
       </c>
-      <c r="B258" s="22" t="s">
+      <c r="B258" s="21" t="s">
         <v>1188</v>
       </c>
-      <c r="C258" s="22" t="s">
+      <c r="C258" s="21" t="s">
         <v>1189</v>
       </c>
-      <c r="D258" s="22" t="s">
+      <c r="D258" s="21" t="s">
         <v>1190</v>
       </c>
-      <c r="E258" s="22" t="s">
+      <c r="E258" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="F258" s="22" t="s">
+      <c r="F258" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G258" s="40" t="s">
+      <c r="G258" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="H258" s="33" t="s">
+      <c r="H258" s="32" t="s">
         <v>1164</v>
       </c>
-      <c r="I258" s="45" t="s">
+      <c r="I258" s="44" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A259" s="25">
+      <c r="A259" s="24">
         <v>53989</v>
       </c>
-      <c r="B259" s="22" t="s">
+      <c r="B259" s="21" t="s">
         <v>1192</v>
       </c>
-      <c r="C259" s="22" t="s">
+      <c r="C259" s="21" t="s">
         <v>1193</v>
       </c>
-      <c r="D259" s="22" t="s">
+      <c r="D259" s="21" t="s">
         <v>1194</v>
       </c>
-      <c r="E259" s="22" t="s">
+      <c r="E259" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="F259" s="22" t="s">
+      <c r="F259" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G259" s="33" t="s">
+      <c r="G259" s="32" t="s">
         <v>823</v>
       </c>
-      <c r="H259" s="33" t="s">
+      <c r="H259" s="32" t="s">
         <v>1174</v>
       </c>
-      <c r="I259" s="45" t="s">
+      <c r="I259" s="44" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A260" s="44"/>
-      <c r="B260" s="44"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="38"/>
-      <c r="E260" s="44"/>
-      <c r="F260" s="44"/>
-      <c r="G260" s="44"/>
-      <c r="H260" s="44"/>
-      <c r="I260" s="44"/>
+      <c r="A260" s="43"/>
+      <c r="B260" s="43"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="43"/>
+      <c r="F260" s="43"/>
+      <c r="G260" s="43"/>
+      <c r="H260" s="43"/>
+      <c r="I260" s="43"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A261" s="44"/>
-      <c r="B261" s="44"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="38"/>
-      <c r="E261" s="44"/>
-      <c r="F261" s="44"/>
-      <c r="G261" s="44"/>
-      <c r="H261" s="44"/>
-      <c r="I261" s="44"/>
+      <c r="A261" s="43"/>
+      <c r="B261" s="43"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="37"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="43"/>
+      <c r="H261" s="43"/>
+      <c r="I261" s="43"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A262" s="44"/>
-      <c r="B262" s="44"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="38"/>
-      <c r="E262" s="44"/>
-      <c r="F262" s="44"/>
-      <c r="G262" s="44"/>
-      <c r="H262" s="44"/>
-      <c r="I262" s="44"/>
+      <c r="A262" s="43"/>
+      <c r="B262" s="43"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="37"/>
+      <c r="E262" s="43"/>
+      <c r="F262" s="43"/>
+      <c r="G262" s="43"/>
+      <c r="H262" s="43"/>
+      <c r="I262" s="43"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A263" s="44"/>
-      <c r="B263" s="44"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="38"/>
-      <c r="E263" s="44"/>
-      <c r="F263" s="44"/>
-      <c r="G263" s="44"/>
-      <c r="H263" s="44"/>
-      <c r="I263" s="44"/>
+      <c r="A263" s="43"/>
+      <c r="B263" s="43"/>
+      <c r="C263" s="43"/>
+      <c r="D263" s="37"/>
+      <c r="E263" s="43"/>
+      <c r="F263" s="43"/>
+      <c r="G263" s="43"/>
+      <c r="H263" s="43"/>
+      <c r="I263" s="43"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A264" s="44"/>
-      <c r="B264" s="44"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="38"/>
-      <c r="E264" s="44"/>
-      <c r="F264" s="44"/>
-      <c r="G264" s="44"/>
-      <c r="H264" s="44"/>
-      <c r="I264" s="44"/>
+      <c r="A264" s="43"/>
+      <c r="B264" s="43"/>
+      <c r="C264" s="43"/>
+      <c r="D264" s="37"/>
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
+      <c r="G264" s="43"/>
+      <c r="H264" s="43"/>
+      <c r="I264" s="43"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A265" s="44"/>
-      <c r="B265" s="44"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="38"/>
-      <c r="E265" s="44"/>
-      <c r="F265" s="44"/>
-      <c r="G265" s="44"/>
-      <c r="H265" s="44"/>
-      <c r="I265" s="44"/>
+      <c r="A265" s="43"/>
+      <c r="B265" s="43"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="37"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
+      <c r="I265" s="43"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A266" s="44"/>
-      <c r="B266" s="44"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="38"/>
-      <c r="E266" s="44"/>
-      <c r="F266" s="44"/>
-      <c r="G266" s="44"/>
-      <c r="H266" s="44"/>
-      <c r="I266" s="44"/>
+      <c r="A266" s="43"/>
+      <c r="B266" s="43"/>
+      <c r="C266" s="43"/>
+      <c r="D266" s="37"/>
+      <c r="E266" s="43"/>
+      <c r="F266" s="43"/>
+      <c r="G266" s="43"/>
+      <c r="H266" s="43"/>
+      <c r="I266" s="43"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A267" s="44"/>
-      <c r="B267" s="44"/>
-      <c r="C267" s="44"/>
-      <c r="D267" s="38"/>
-      <c r="E267" s="44"/>
-      <c r="F267" s="44"/>
-      <c r="G267" s="44"/>
-      <c r="H267" s="44"/>
-      <c r="I267" s="44"/>
+      <c r="A267" s="43"/>
+      <c r="B267" s="43"/>
+      <c r="C267" s="43"/>
+      <c r="D267" s="37"/>
+      <c r="E267" s="43"/>
+      <c r="F267" s="43"/>
+      <c r="G267" s="43"/>
+      <c r="H267" s="43"/>
+      <c r="I267" s="43"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A268" s="44"/>
-      <c r="B268" s="44"/>
-      <c r="C268" s="44"/>
-      <c r="D268" s="38"/>
-      <c r="E268" s="44"/>
-      <c r="F268" s="44"/>
-      <c r="G268" s="44"/>
-      <c r="H268" s="44"/>
-      <c r="I268" s="44"/>
+      <c r="A268" s="43"/>
+      <c r="B268" s="43"/>
+      <c r="C268" s="43"/>
+      <c r="D268" s="37"/>
+      <c r="E268" s="43"/>
+      <c r="F268" s="43"/>
+      <c r="G268" s="43"/>
+      <c r="H268" s="43"/>
+      <c r="I268" s="43"/>
     </row>
     <row r="269" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A269" s="44"/>
-      <c r="B269" s="44"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="38"/>
-      <c r="E269" s="44"/>
-      <c r="F269" s="44"/>
-      <c r="G269" s="44"/>
-      <c r="H269" s="44"/>
-      <c r="I269" s="44"/>
+      <c r="A269" s="43"/>
+      <c r="B269" s="43"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="37"/>
+      <c r="E269" s="43"/>
+      <c r="F269" s="43"/>
+      <c r="G269" s="43"/>
+      <c r="H269" s="43"/>
+      <c r="I269" s="43"/>
     </row>
     <row r="270" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A270" s="44"/>
-      <c r="B270" s="44"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="38"/>
-      <c r="E270" s="44"/>
-      <c r="F270" s="44"/>
-      <c r="G270" s="44"/>
-      <c r="H270" s="44"/>
-      <c r="I270" s="44"/>
+      <c r="A270" s="43"/>
+      <c r="B270" s="43"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="37"/>
+      <c r="E270" s="43"/>
+      <c r="F270" s="43"/>
+      <c r="G270" s="43"/>
+      <c r="H270" s="43"/>
+      <c r="I270" s="43"/>
     </row>
     <row r="271" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A271" s="44"/>
-      <c r="B271" s="44"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="38"/>
-      <c r="E271" s="44"/>
-      <c r="F271" s="44"/>
-      <c r="G271" s="44"/>
-      <c r="H271" s="44"/>
-      <c r="I271" s="44"/>
+      <c r="A271" s="43"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="37"/>
+      <c r="E271" s="43"/>
+      <c r="F271" s="43"/>
+      <c r="G271" s="43"/>
+      <c r="H271" s="43"/>
+      <c r="I271" s="43"/>
     </row>
     <row r="272" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A272" s="44"/>
-      <c r="B272" s="44"/>
-      <c r="C272" s="44"/>
-      <c r="D272" s="38"/>
-      <c r="E272" s="44"/>
-      <c r="F272" s="44"/>
-      <c r="G272" s="44"/>
-      <c r="H272" s="44"/>
-      <c r="I272" s="44"/>
+      <c r="A272" s="43"/>
+      <c r="B272" s="43"/>
+      <c r="C272" s="43"/>
+      <c r="D272" s="37"/>
+      <c r="E272" s="43"/>
+      <c r="F272" s="43"/>
+      <c r="G272" s="43"/>
+      <c r="H272" s="43"/>
+      <c r="I272" s="43"/>
     </row>
     <row r="273" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A273" s="44"/>
-      <c r="B273" s="44"/>
-      <c r="C273" s="44"/>
-      <c r="D273" s="38"/>
-      <c r="E273" s="44"/>
-      <c r="F273" s="44"/>
-      <c r="G273" s="44"/>
-      <c r="H273" s="44"/>
-      <c r="I273" s="44"/>
+      <c r="A273" s="43"/>
+      <c r="B273" s="43"/>
+      <c r="C273" s="43"/>
+      <c r="D273" s="37"/>
+      <c r="E273" s="43"/>
+      <c r="F273" s="43"/>
+      <c r="G273" s="43"/>
+      <c r="H273" s="43"/>
+      <c r="I273" s="43"/>
     </row>
     <row r="274" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A274" s="44"/>
-      <c r="B274" s="44"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="38"/>
-      <c r="E274" s="44"/>
-      <c r="F274" s="44"/>
-      <c r="G274" s="44"/>
-      <c r="H274" s="44"/>
-      <c r="I274" s="44"/>
+      <c r="A274" s="43"/>
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="37"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
+      <c r="G274" s="43"/>
+      <c r="H274" s="43"/>
+      <c r="I274" s="43"/>
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A275" s="44"/>
-      <c r="B275" s="44"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="38"/>
-      <c r="E275" s="44"/>
-      <c r="F275" s="44"/>
-      <c r="G275" s="44"/>
-      <c r="H275" s="44"/>
-      <c r="I275" s="44"/>
+      <c r="A275" s="43"/>
+      <c r="B275" s="43"/>
+      <c r="C275" s="43"/>
+      <c r="D275" s="37"/>
+      <c r="E275" s="43"/>
+      <c r="F275" s="43"/>
+      <c r="G275" s="43"/>
+      <c r="H275" s="43"/>
+      <c r="I275" s="43"/>
     </row>
     <row r="276" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A276" s="44"/>
-      <c r="B276" s="44"/>
-      <c r="C276" s="44"/>
-      <c r="D276" s="38"/>
-      <c r="E276" s="44"/>
-      <c r="F276" s="44"/>
-      <c r="G276" s="44"/>
-      <c r="H276" s="44"/>
-      <c r="I276" s="44"/>
+      <c r="A276" s="43"/>
+      <c r="B276" s="43"/>
+      <c r="C276" s="43"/>
+      <c r="D276" s="37"/>
+      <c r="E276" s="43"/>
+      <c r="F276" s="43"/>
+      <c r="G276" s="43"/>
+      <c r="H276" s="43"/>
+      <c r="I276" s="43"/>
     </row>
     <row r="277" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A277" s="44"/>
-      <c r="B277" s="44"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="38"/>
-      <c r="E277" s="44"/>
-      <c r="F277" s="44"/>
-      <c r="G277" s="44"/>
-      <c r="H277" s="44"/>
-      <c r="I277" s="44"/>
+      <c r="A277" s="43"/>
+      <c r="B277" s="43"/>
+      <c r="C277" s="43"/>
+      <c r="D277" s="37"/>
+      <c r="E277" s="43"/>
+      <c r="F277" s="43"/>
+      <c r="G277" s="43"/>
+      <c r="H277" s="43"/>
+      <c r="I277" s="43"/>
     </row>
     <row r="278" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A278" s="44"/>
-      <c r="B278" s="44"/>
-      <c r="C278" s="44"/>
-      <c r="D278" s="38"/>
-      <c r="E278" s="44"/>
-      <c r="F278" s="44"/>
-      <c r="G278" s="44"/>
-      <c r="H278" s="44"/>
-      <c r="I278" s="44"/>
+      <c r="A278" s="43"/>
+      <c r="B278" s="43"/>
+      <c r="C278" s="43"/>
+      <c r="D278" s="37"/>
+      <c r="E278" s="43"/>
+      <c r="F278" s="43"/>
+      <c r="G278" s="43"/>
+      <c r="H278" s="43"/>
+      <c r="I278" s="43"/>
     </row>
     <row r="279" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A279" s="44"/>
-      <c r="B279" s="44"/>
-      <c r="C279" s="44"/>
-      <c r="D279" s="38"/>
-      <c r="E279" s="44"/>
-      <c r="F279" s="44"/>
-      <c r="G279" s="44"/>
-      <c r="H279" s="44"/>
-      <c r="I279" s="44"/>
+      <c r="A279" s="43"/>
+      <c r="B279" s="43"/>
+      <c r="C279" s="43"/>
+      <c r="D279" s="37"/>
+      <c r="E279" s="43"/>
+      <c r="F279" s="43"/>
+      <c r="G279" s="43"/>
+      <c r="H279" s="43"/>
+      <c r="I279" s="43"/>
     </row>
     <row r="280" spans="1:9" ht="15.75" customHeight="1">
       <c r="D280" s="2"/>
@@ -14234,8 +14398,15 @@
     <hyperlink ref="H258" r:id="rId295" xr:uid="{6F4A41D6-4D75-AC42-8EAC-04CCE9D86773}"/>
     <hyperlink ref="G259" r:id="rId296" xr:uid="{0F3F7089-B0C8-5142-BF6D-303AF32137CB}"/>
     <hyperlink ref="H259" r:id="rId297" xr:uid="{251E533A-8B41-A547-9001-21934BF2F5D2}"/>
+    <hyperlink ref="K6" r:id="rId298" xr:uid="{DDCF6B82-D188-E34E-9A4E-E31FD475DA97}"/>
+    <hyperlink ref="K7" r:id="rId299" xr:uid="{62359B16-86C6-EA4E-A6B9-B0B7ABB080E9}"/>
+    <hyperlink ref="K8" r:id="rId300" xr:uid="{4246C668-68BD-4A49-8A7A-7DA852204EB9}"/>
+    <hyperlink ref="K11" r:id="rId301" xr:uid="{34326DF8-0065-ED46-8D72-C72E5D74122D}"/>
+    <hyperlink ref="K13" r:id="rId302" xr:uid="{163E85EA-025F-B541-B671-9CC536316890}"/>
+    <hyperlink ref="K16" r:id="rId303" xr:uid="{AB8C9AE5-E2FD-0545-B913-4AA39EF1BC29}"/>
+    <hyperlink ref="K18" r:id="rId304" xr:uid="{589B092B-77F8-8343-909D-9E0881893D9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId298"/>
+  <legacyDrawing r:id="rId305"/>
 </worksheet>
 </file>